--- a/urban_design/cea_excel/zone.xlsx
+++ b/urban_design/cea_excel/zone.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
   <si>
     <t>Name</t>
   </si>
@@ -47,1069 +47,1399 @@
     <t>B001</t>
   </si>
   <si>
-    <t>[[27234.5551100,26743.5350500],[27234.5551100,26777.2050500],[27195.3351100,26777.2050500],[27195.3351100,26743.5350500],[27234.5551100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B002</t>
   </si>
   <si>
-    <t>[[27372.3551100,26743.5350500],[27372.3551100,26777.2050500],[27333.1351100,26777.2050500],[27333.1351100,26743.5350500],[27372.3551100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B003</t>
   </si>
   <si>
-    <t>[[27615.1551100,26670.8050500],[27575.9351100,26670.8050500],[27615.1551100,26652.7365641],[27575.9351100,26666.1234956],[27615.1551100,26670.8050500]]</t>
-  </si>
-  <si>
     <t>B004</t>
   </si>
   <si>
-    <t>[[27493.7551100,26637.1350500],[27493.7551100,26670.8050500],[27454.5351100,26670.8050500],[27477.2941085,26637.1350500],[27474.4068,26641.2076000],[27454.5351100,26650.1493209],[27493.7551100,26637.1350500]]</t>
-  </si>
-  <si>
     <t>B005</t>
   </si>
   <si>
-    <t>[[27454.5351100,26743.5350500],[27493.7551100,26743.5350500],[27493.7551100,26777.2050500],[27454.5351100,26777.2050500],[27454.5351100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B006</t>
   </si>
   <si>
-    <t>[[27615.1551100,26777.2050500],[27575.9351100,26777.2050500],[27575.9351100,26743.5350500],[27615.1551100,26743.5350500],[27615.1551100,26777.2050500]]</t>
-  </si>
-  <si>
     <t>B007</t>
   </si>
   <si>
-    <t>[[27234.5551100,26849.9350500],[27234.5551100,26883.6050500],[27195.3351100,26883.6050500],[27195.3351100,26849.9350500],[27234.5551100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B008</t>
   </si>
   <si>
-    <t>[[27372.3551100,26849.9350500],[27372.3551100,26883.6050500],[27333.1351100,26883.6050500],[27333.1351100,26849.9350500],[27372.3551100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B009</t>
   </si>
   <si>
-    <t>[[27493.7551100,26849.9350500],[27493.7551100,26883.6050500],[27454.5351100,26883.6050500],[27454.5351100,26849.9350500],[27493.7551100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B010</t>
   </si>
   <si>
-    <t>[[27615.1551100,26849.9350500],[27615.1551100,26883.6050500],[27575.9351100,26883.6050500],[27575.9351100,26849.9350500],[27615.1551100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B011</t>
   </si>
   <si>
-    <t>[[27713.7351100,26743.5350500],[27713.7351100,26777.2050500],[27723.5628126,26777.2050500],[27720.9963282,26757.2528635],[27726.2008613,26743.5350500],[27713.7351100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B012</t>
   </si>
   <si>
-    <t>[[27713.7351100,26849.9350500],[27713.7351100,26877.1305640],[27730.3173192,26849.9350500],[27713.7351100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B013</t>
   </si>
   <si>
-    <t>[[27234.5551100,26956.3350500],[27200.8090272,26956.3350500],[27234.5551100,26976.2844811],[27234.5551100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B014</t>
   </si>
   <si>
-    <t>[[27372.3551100,26956.3350500],[27372.3551100,26990.0050500],[27333.1351100,26990.0050500],[27333.1351100,26956.3350500],[27372.3551100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B015</t>
   </si>
   <si>
-    <t>[[27493.7551100,26956.3350500],[27493.7551100,26990.0050500],[27454.5351100,26990.0050500],[27454.5351100,26956.3350500],[27493.7551100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B016</t>
   </si>
   <si>
-    <t>[[27615.1551100,26956.3350500],[27615.1551100,26990.0050500],[27575.9351100,26990.0050500],[27575.9351100,26956.3350500],[27615.1551100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B017</t>
   </si>
   <si>
-    <t>[[27575.9351100,27169.1350500],[27615.1551100,27169.1350500],[27575.9351100,27178.0956618],[27615.1551100,27201.2810696],[27575.9351100,27169.1350500]]</t>
-  </si>
-  <si>
     <t>B018</t>
   </si>
   <si>
-    <t>[[27493.7551100,27062.7350500],[27493.7551100,27096.4050500],[27454.5351100,27096.4050500],[27454.5351100,27062.7350500],[27493.7551100,27062.7350500]]</t>
-  </si>
-  <si>
     <t>B019</t>
   </si>
   <si>
-    <t>[[27615.1551100,27062.7350500],[27615.1551100,27096.4050500],[27575.9351100,27096.4050500],[27575.9351100,27062.7350500],[27615.1551100,27062.7350500]]</t>
-  </si>
-  <si>
     <t>B020</t>
   </si>
   <si>
-    <t>[[27713.7351100,27096.4050500],[27713.7351100,27062.7350500],[27727.3788574,27096.4050500],[27734.3859250,27078.2257500],[27729.1685640,27062.7350500],[27713.7351100,27096.4050500]]</t>
-  </si>
-  <si>
     <t>B021</t>
   </si>
   <si>
-    <t>[[27956.5351100,27202.8050500],[27956.5351100,27169.1350500],[27995.7551100,27169.1350500],[27995.7551100,27202.8050500],[27956.5351100,27202.8050500]]</t>
-  </si>
-  <si>
     <t>B022</t>
   </si>
   <si>
-    <t>[[27874.3551100,27202.8050500],[27874.3551100,27173.6263836],[27844.4841878,27202.8050500],[27874.3551100,27202.8050500]]</t>
-  </si>
-  <si>
     <t>B023</t>
   </si>
   <si>
-    <t>[[27995.7551100,27062.7350500],[27995.7551100,27096.4050500],[27956.5351100,27096.4050500],[27958.5891330,27062.7350500],[27956.5351100,27066.2909603],[27995.7551100,27062.7350500]]</t>
-  </si>
-  <si>
     <t>B024</t>
   </si>
   <si>
-    <t>[[28094.3351100,26956.3350500],[28133.5551100,26956.3350500],[28133.5551100,26990.0050500],[28094.3351100,26990.0050500],[28094.3351100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B025</t>
   </si>
   <si>
-    <t>[[28094.3351100,27169.1350500],[28133.5551100,27169.1350500],[28133.5551100,27202.8050500],[28094.3351100,27202.8050500],[28094.3351100,27169.1350500]]</t>
-  </si>
-  <si>
     <t>B026</t>
   </si>
   <si>
-    <t>[[28094.3351100,27062.7350500],[28133.5551100,27062.7350500],[28133.5551100,27096.4050500],[28094.3351100,27096.4050500],[28094.3351100,27062.7350500]]</t>
-  </si>
-  <si>
     <t>B027</t>
   </si>
   <si>
-    <t>[[26991.7551100,27325.6050500],[26976.0866,27291.9350500],[26991.7551100,27291.9942909],[26990.8239053,27291.9350500],[26976.0866,27325.6050500],[26991.7551100,27325.6050500]]</t>
-  </si>
-  <si>
     <t>B028</t>
   </si>
   <si>
-    <t>[[27073.9351100,27325.6050500],[27077.7244214,27325.6050500],[27073.9351100,27323.4642583],[27073.9351100,27325.6050500]]</t>
-  </si>
-  <si>
     <t>B029</t>
   </si>
   <si>
-    <t>[[28376.3551100,26670.8050500],[28337.1351100,26670.8050500],[28376.3551100,26637.1350500],[28350.5704554,26637.1350500],[28337.1351100,26649.9897523],[28376.3551100,26670.8050500]]</t>
-  </si>
-  <si>
     <t>B030</t>
   </si>
   <si>
-    <t>[[28254.9551100,26743.5350500],[28254.9551100,26777.2050500],[28215.7351100,26777.2050500],[28239.3643985,26743.5350500],[28215.7351100,26766.1431378],[28254.9551100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B031</t>
   </si>
   <si>
-    <t>[[28376.3551100,26777.2050500],[28337.1351100,26777.2050500],[28337.1351100,26743.5350500],[28376.3551100,26743.5350500],[28376.3551100,26777.2050500]]</t>
-  </si>
-  <si>
     <t>B032</t>
   </si>
   <si>
-    <t>[[28376.3551100,26883.6050500],[28337.1351100,26883.6050500],[28337.1351100,26849.9350500],[28376.3551100,26849.9350500],[28376.3551100,26883.6050500]]</t>
-  </si>
-  <si>
     <t>B033</t>
   </si>
   <si>
-    <t>[[28215.7351100,26849.9350500],[28254.9551100,26849.9350500],[28254.9551100,26883.6050500],[28215.7351100,26883.6050500],[28215.7351100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B034</t>
   </si>
   <si>
-    <t>[[28215.7351100,26956.3350500],[28254.9551100,26956.3350500],[28254.9551100,26990.0050500],[28215.7351100,26990.0050500],[28215.7351100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B035</t>
   </si>
   <si>
-    <t>[[28376.3551100,26990.0050500],[28337.1351100,26990.0050500],[28337.1351100,26956.3350500],[28376.3551100,26956.3350500],[28376.3551100,26990.0050500]]</t>
-  </si>
-  <si>
     <t>B036</t>
   </si>
   <si>
-    <t>[[28215.7351100,27169.1350500],[28254.9551100,27169.1350500],[28215.7351100,27202.8050500],[28247.6815320,27202.8050500],[28254.9551100,27195.4912981],[28215.7351100,27169.1350500]]</t>
-  </si>
-  <si>
     <t>B037</t>
   </si>
   <si>
-    <t>[[28215.7351100,27062.7350500],[28254.9551100,27062.7350500],[28254.9551100,27096.4050500],[28215.7351100,27096.4050500],[28215.7351100,27062.7350500]]</t>
-  </si>
-  <si>
     <t>B038</t>
   </si>
   <si>
-    <t>[[28337.1351100,27096.4050500],[28337.1351100,27062.7350500],[28376.3551100,27062.7350500],[28353.4970846,27096.4050500],[28376.3551100,27073.4207736],[28337.1351100,27096.4050500]]</t>
-  </si>
-  <si>
     <t>B039</t>
   </si>
   <si>
-    <t>[[27113.1551100,27398.3350500],[27113.1551100,27432.0050500],[27073.9351100,27398.3350500],[27073.9351100,27422.1189726],[27089.8296409,27432.0050500],[27113.1551100,27398.3350500]]</t>
-  </si>
-  <si>
     <t>B040</t>
   </si>
   <si>
-    <t>[[27234.5551100,27432.0050500],[27195.3351100,27432.0050500],[27195.3351100,27398.3350500],[27234.5551100,27414.2073845],[27206.4602616,27398.3350500],[27234.5551100,27432.0050500]]</t>
-  </si>
-  <si>
     <t>B041</t>
   </si>
   <si>
-    <t>[[28474.9351100,26637.1350500],[28514.1551100,26637.1350500],[28514.1551100,26670.8050500],[28474.9351100,26670.8050500],[28474.9351100,26637.1350500]]</t>
-  </si>
-  <si>
     <t>B042</t>
   </si>
   <si>
-    <t>[[28474.9351100,26743.5350500],[28514.1551100,26743.5350500],[28514.1551100,26777.2050500],[28474.9351100,26777.2050500],[28474.9351100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B043</t>
   </si>
   <si>
-    <t>[[28474.9351100,26849.9350500],[28514.1551100,26849.9350500],[28514.1551100,26883.6050500],[28474.9351100,26883.6050500],[28474.9351100,26849.9350500]]</t>
-  </si>
-  <si>
     <t>B044</t>
   </si>
   <si>
-    <t>[[28474.9351100,26956.3350500],[28474.9351100,26974.2962901],[28492.7976903,26956.3350500],[28474.9351100,26956.3350500]]</t>
-  </si>
-  <si>
     <t>B045</t>
   </si>
   <si>
-    <t>[[27113.1551100,27538.4050500],[27113.1551100,27518.0671593],[27102.7983590,27538.4050500],[27113.1551100,27538.4050500]]</t>
-  </si>
-  <si>
     <t>B046</t>
   </si>
   <si>
-    <t>[[27234.5551100,27504.7350500],[27234.5551100,27538.4050500],[27195.3351100,27538.4050500],[27195.3351100,27504.7350500],[27234.5551100,27504.7350500]]</t>
-  </si>
-  <si>
     <t>B047</t>
   </si>
   <si>
-    <t>[[27372.3551100,27504.7350500],[27372.3551100,27538.4050500],[27333.1351100,27538.4050500],[27333.1351100,27504.7350500],[27372.3551100,27504.7350500]]</t>
-  </si>
-  <si>
     <t>B048</t>
   </si>
   <si>
-    <t>[[28756.9551100,26670.8050500],[28717.7351100,26670.8050500],[28717.7351100,26637.1350500],[28756.9551100,26637.1350500],[28756.9551100,26670.8050500]]</t>
-  </si>
-  <si>
     <t>B049</t>
   </si>
   <si>
-    <t>[[28635.5551100,26670.8050500],[28596.3351100,26670.8050500],[28635.5551100,26659.8556520],[28596.3351100,26641.0733102],[28635.5551100,26670.8050500]]</t>
-  </si>
-  <si>
     <t>B050</t>
   </si>
   <si>
-    <t>[[28596.3351100,26743.5350500],[28635.5551100,26743.5350500],[28635.5551100,26777.2050500],[28596.3351100,26777.2050500],[28596.3351100,26743.5350500]]</t>
-  </si>
-  <si>
     <t>B051</t>
   </si>
   <si>
-    <t>[[27234.5551100,27611.1350500],[27234.5551100,27644.8050500],[27195.3351100,27644.8050500],[27195.3351100,27611.1350500],[27234.5551100,27611.1350500]]</t>
-  </si>
-  <si>
     <t>B052</t>
   </si>
   <si>
-    <t>[[27372.3551100,27611.1350500],[27372.3551100,27644.8050500],[27333.1351100,27644.8050500],[27333.1351100,27611.1350500],[27372.3551100,27611.1350500]]</t>
-  </si>
-  <si>
     <t>B053</t>
   </si>
   <si>
-    <t>[[27493.7551100,27611.1350500],[27493.7551100,27644.8050500],[27454.5351100,27644.8050500],[27454.5351100,27611.1350500],[27493.7551100,27611.1350500]]</t>
-  </si>
-  <si>
     <t>B054</t>
   </si>
   <si>
-    <t>[[27615.1551100,27644.8050500],[27575.9351100,27644.8050500],[27575.9351100,27611.1350500],[27615.1551100,27629.2293858],[27583.1272051,27611.1350500],[27615.1551100,27644.8050500]]</t>
-  </si>
-  <si>
     <t>B055</t>
   </si>
   <si>
-    <t>[[27372.3551100,27717.5350500],[27372.3551100,27751.2050500],[27333.1351100,27751.2050500],[27333.1351100,27717.5350500],[27372.3551100,27717.5350500]]</t>
-  </si>
-  <si>
     <t>B056</t>
   </si>
   <si>
-    <t>[[27493.7551100,27717.5350500],[27493.7551100,27751.2050500],[27454.5351100,27751.2050500],[27454.5351100,27717.5350500],[27493.7551100,27717.5350500]]</t>
-  </si>
-  <si>
     <t>B057</t>
   </si>
   <si>
-    <t>[[27615.1551100,27717.5350500],[27615.1551100,27751.2050500],[27575.9351100,27751.2050500],[27575.9351100,27717.5350500],[27615.1551100,27717.5350500]]</t>
-  </si>
-  <si>
     <t>B058</t>
   </si>
   <si>
-    <t>[[27752.9551100,27717.5350500],[27752.9551100,27751.2050500],[27713.7351100,27751.2050500],[27713.7351100,27717.5350500],[27752.9551100,27717.5350500]]</t>
-  </si>
-  <si>
     <t>B059</t>
   </si>
   <si>
-    <t>[[29137.5551100,27751.2050500],[29098.3351100,27751.2050500],[29098.3351100,27717.5350500],[29137.5551100,27717.5350500],[29137.5551100,27751.2050500]]</t>
-  </si>
-  <si>
     <t>B060</t>
   </si>
   <si>
-    <t>[[27234.5551100,27823.9350500],[27234.5551100,27857.6050500],[27224.9805596,27823.9350500],[27227.4851588,27857.6050500],[27234.5551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B061</t>
   </si>
   <si>
-    <t>[[27234.5551100,27930.3350500],[27234.5551100,27964.0050500],[27226.0020096,27930.3350500],[27221.2473739,27964.0050500],[27234.5551100,27930.3350500]]</t>
-  </si>
-  <si>
     <t>B062</t>
   </si>
   <si>
-    <t>[[27372.3551100,27823.9350500],[27372.3551100,27857.6050500],[27333.1351100,27857.6050500],[27333.1351100,27823.9350500],[27372.3551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B063</t>
   </si>
   <si>
-    <t>[[27333.1351100,27964.0050500],[27333.1351100,27930.3350500],[27372.3551100,27930.3350500],[27372.3551100,27964.0050500],[27333.1351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B064</t>
   </si>
   <si>
-    <t>[[27575.9351100,27964.0050500],[27575.9351100,27930.3350500],[27615.1551100,27930.3350500],[27615.1551100,27964.0050500],[27575.9351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B065</t>
   </si>
   <si>
-    <t>[[27454.5351100,27964.0050500],[27454.5351100,27930.3350500],[27493.7551100,27930.3350500],[27493.7551100,27964.0050500],[27454.5351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B066</t>
   </si>
   <si>
-    <t>[[27493.7551100,27823.9350500],[27493.7551100,27857.6050500],[27454.5351100,27857.6050500],[27454.5351100,27823.9350500],[27493.7551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B067</t>
   </si>
   <si>
-    <t>[[27615.1551100,27823.9350500],[27615.1551100,27857.6050500],[27575.9351100,27857.6050500],[27575.9351100,27823.9350500],[27615.1551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B068</t>
   </si>
   <si>
-    <t>[[27713.7351100,27964.0050500],[27713.7351100,27930.3350500],[27752.9551100,27930.3350500],[27752.9551100,27964.0050500],[27713.7351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B069</t>
   </si>
   <si>
-    <t>[[27752.9551100,27823.9350500],[27752.9551100,27857.6050500],[27713.7351100,27857.6050500],[27713.7351100,27823.9350500],[27752.9551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B070</t>
   </si>
   <si>
-    <t>[[27956.5351100,27964.0050500],[27956.5351100,27930.3350500],[27995.7551100,27930.3350500],[27995.7551100,27964.0050500],[27956.5351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B071</t>
   </si>
   <si>
-    <t>[[27835.1351100,27964.0050500],[27835.1351100,27930.3350500],[27874.3551100,27930.3350500],[27874.3551100,27964.0050500],[27835.1351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B072</t>
   </si>
   <si>
-    <t>[[27874.3551100,27823.9350500],[27874.3551100,27857.6050500],[27835.1351100,27857.6050500],[27835.1351100,27823.9350500],[27874.3551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B073</t>
   </si>
   <si>
-    <t>[[28094.3351100,27964.0050500],[28094.3351100,27930.3350500],[28133.5551100,27930.3350500],[28133.5551100,27964.0050500],[28094.3351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B074</t>
   </si>
   <si>
-    <t>[[28337.1351100,27964.0050500],[28337.1351100,27930.3350500],[28376.3551100,27930.3350500],[28376.3551100,27964.0050500],[28337.1351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B075</t>
   </si>
   <si>
-    <t>[[28215.7351100,27964.0050500],[28215.7351100,27930.3350500],[28254.9551100,27930.3350500],[28254.9551100,27964.0050500],[28215.7351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B076</t>
   </si>
   <si>
-    <t>[[28254.9551100,27823.9350500],[28254.9551100,27857.6050500],[28215.7351100,27857.6050500],[28215.7351100,27823.9350500],[28254.9551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B077</t>
   </si>
   <si>
-    <t>[[28376.3551100,27823.9350500],[28376.3551100,27857.6050500],[28337.1351100,27857.6050500],[28337.1351100,27823.9350500],[28376.3551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B078</t>
   </si>
   <si>
-    <t>[[28474.9351100,27964.0050500],[28474.9351100,27930.3350500],[28514.1551100,27930.3350500],[28514.1551100,27964.0050500],[28474.9351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B079</t>
   </si>
   <si>
-    <t>[[28514.1551100,27823.9350500],[28514.1551100,27857.6050500],[28474.9351100,27857.6050500],[28474.9351100,27823.9350500],[28514.1551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B080</t>
   </si>
   <si>
-    <t>[[28717.7351100,27964.0050500],[28717.7351100,27930.3350500],[28756.9551100,27930.3350500],[28756.9551100,27964.0050500],[28717.7351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B081</t>
   </si>
   <si>
-    <t>[[28596.3351100,27964.0050500],[28596.3351100,27930.3350500],[28635.5551100,27930.3350500],[28635.5551100,27964.0050500],[28596.3351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B082</t>
   </si>
   <si>
-    <t>[[28635.5551100,27857.6050500],[28596.3351100,27857.6050500],[28596.3351100,27823.9350500],[28635.5551100,27845.7259748],[28613.6466902,27823.9350500],[28635.5551100,27857.6050500]]</t>
-  </si>
-  <si>
     <t>B083</t>
   </si>
   <si>
-    <t>[[28855.5351100,27964.0050500],[28855.5351100,27930.3350500],[28894.7551100,27930.3350500],[28894.7551100,27964.0050500],[28855.5351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B084</t>
   </si>
   <si>
-    <t>[[28894.7551100,27823.9350500],[28894.7551100,27857.6050500],[28855.5351100,27857.6050500],[28891.0576281,27823.9350500],[28855.5351100,27844.3835600],[28894.7551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B085</t>
   </si>
   <si>
-    <t>[[29098.3351100,27964.0050500],[29098.3351100,27930.3350500],[29137.5551100,27930.3350500],[29137.5551100,27964.0050500],[29098.3351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B086</t>
   </si>
   <si>
-    <t>[[28976.9351100,27964.0050500],[28976.9351100,27930.3350500],[29016.1551100,27930.3350500],[29016.1551100,27964.0050500],[28976.9351100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B087</t>
   </si>
   <si>
-    <t>[[29016.1551100,27823.9350500],[29016.1551100,27857.6050500],[28976.9351100,27857.6050500],[28976.9351100,27823.9350500],[29016.1551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B088</t>
   </si>
   <si>
-    <t>[[29137.5551100,27823.9350500],[29137.5551100,27857.6050500],[29098.3351100,27857.6050500],[29098.3351100,27823.9350500],[29137.5551100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B089</t>
   </si>
   <si>
-    <t>[[29236.1351100,27717.5350500],[29275.3551100,27751.2050500],[29236.1351100,27751.2050500],[29275.3551100,27745.5034701],[29245.5577051,27717.5350500],[29236.1351100,27717.5350500]]</t>
-  </si>
-  <si>
     <t>B090</t>
   </si>
   <si>
-    <t>[[29236.1351100,27930.3350500],[29275.3551100,27930.3350500],[29275.3551100,27964.0050500],[29236.1351100,27964.0050500],[29236.1351100,27930.3350500]]</t>
-  </si>
-  <si>
     <t>B091</t>
   </si>
   <si>
-    <t>[[29236.1351100,27823.9350500],[29275.3551100,27823.9350500],[29275.3551100,27857.6050500],[29236.1351100,27857.6050500],[29236.1351100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B092</t>
   </si>
   <si>
-    <t>[[27234.5551100,28053.1350500],[27234.5551100,28086.8050500],[27210.3769742,28053.1350500],[27208.8445805,28086.8050500],[27234.5551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B093</t>
   </si>
   <si>
-    <t>[[27372.3551100,28053.1350500],[27372.3551100,28086.8050500],[27333.1351100,28086.8050500],[27333.1351100,28053.1350500],[27372.3551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B094</t>
   </si>
   <si>
-    <t>[[27493.7551100,28053.1350500],[27493.7551100,28086.8050500],[27454.5351100,28086.8050500],[27454.5351100,28053.1350500],[27493.7551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B095</t>
   </si>
   <si>
-    <t>[[27615.1551100,28053.1350500],[27615.1551100,28086.8050500],[27575.9351100,28086.8050500],[27575.9351100,28053.1350500],[27615.1551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B096</t>
   </si>
   <si>
-    <t>[[27752.9551100,28053.1350500],[27752.9551100,28086.8050500],[27713.7351100,28086.8050500],[27713.7351100,28053.1350500],[27752.9551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B097</t>
   </si>
   <si>
-    <t>[[27874.3551100,28053.1350500],[27874.3551100,28086.8050500],[27835.1351100,28086.8050500],[27835.1351100,28053.1350500],[27874.3551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B098</t>
   </si>
   <si>
-    <t>[[27995.7551100,28053.1350500],[27995.7551100,28086.8050500],[27956.5351100,28086.8050500],[27956.5351100,28053.1350500],[27995.7551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B099</t>
   </si>
   <si>
-    <t>[[28133.5551100,28053.1350500],[28133.5551100,28086.8050500],[28094.3351100,28086.8050500],[28094.3351100,28053.1350500],[28133.5551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B100</t>
   </si>
   <si>
-    <t>[[28254.9551100,28053.1350500],[28254.9551100,28086.8050500],[28215.7351100,28086.8050500],[28215.7351100,28053.1350500],[28254.9551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B101</t>
   </si>
   <si>
-    <t>[[28376.3551100,28053.1350500],[28376.3551100,28086.8050500],[28337.1351100,28086.8050500],[28337.1351100,28053.1350500],[28376.3551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B102</t>
   </si>
   <si>
-    <t>[[28514.1551100,28053.1350500],[28514.1551100,28086.8050500],[28474.9351100,28086.8050500],[28474.9351100,28053.1350500],[28514.1551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B103</t>
   </si>
   <si>
-    <t>[[28635.5551100,28053.1350500],[28635.5551100,28086.8050500],[28596.3351100,28086.8050500],[28596.3351100,28053.1350500],[28635.5551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B104</t>
   </si>
   <si>
-    <t>[[28756.9551100,28053.1350500],[28756.9551100,28086.8050500],[28717.7351100,28086.8050500],[28717.7351100,28053.1350500],[28756.9551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B105</t>
   </si>
   <si>
-    <t>[[28894.7551100,28053.1350500],[28894.7551100,28086.8050500],[28855.5351100,28086.8050500],[28855.5351100,28053.1350500],[28894.7551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B106</t>
   </si>
   <si>
-    <t>[[29016.1551100,28053.1350500],[29016.1551100,28086.8050500],[28976.9351100,28086.8050500],[28976.9351100,28053.1350500],[29016.1551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B107</t>
   </si>
   <si>
-    <t>[[29137.5551100,28053.1350500],[29137.5551100,28086.8050500],[29098.3351100,28086.8050500],[29098.3351100,28053.1350500],[29137.5551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B108</t>
   </si>
   <si>
-    <t>[[29275.3551100,28053.1350500],[29275.3551100,28086.8050500],[29236.1351100,28086.8050500],[29236.1351100,28053.1350500],[29275.3551100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B109</t>
   </si>
   <si>
-    <t>[[29518.1551100,27751.2050500],[29478.9351100,27751.2050500],[29518.1551100,27718.6388321],[29504.5270108,27717.5350500],[29478.9351100,27744.2032161],[29517.0071755,27717.5350500],[29518.1551100,27751.2050500]]</t>
-  </si>
-  <si>
     <t>B110</t>
   </si>
   <si>
-    <t>[[29518.1551100,27857.6050500],[29478.9351100,27857.6050500],[29478.9351100,27823.9350500],[29518.1551100,27823.9350500],[29518.1551100,27857.6050500]]</t>
-  </si>
-  <si>
     <t>B111</t>
   </si>
   <si>
-    <t>[[29518.1551100,27964.0050500],[29478.9351100,27964.0050500],[29478.9351100,27930.3350500],[29518.1551100,27930.3350500],[29518.1551100,27964.0050500]]</t>
-  </si>
-  <si>
     <t>B112</t>
   </si>
   <si>
-    <t>[[29357.5351100,27930.3350500],[29396.7551100,27930.3350500],[29396.7551100,27964.0050500],[29357.5351100,27964.0050500],[29357.5351100,27930.3350500]]</t>
-  </si>
-  <si>
     <t>B113</t>
   </si>
   <si>
-    <t>[[29357.5351100,27823.9350500],[29396.7551100,27857.6050500],[29357.5351100,27857.6050500],[29396.7551100,27829.8392892],[29381.8043591,27845.4187926],[29358.9156948,27823.9350500],[29357.5351100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B114</t>
   </si>
   <si>
-    <t>[[29357.5351100,28053.1350500],[29396.7551100,28053.1350500],[29396.7551100,28086.8050500],[29357.5351100,28086.8050500],[29357.5351100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B115</t>
   </si>
   <si>
-    <t>[[29518.1551100,28086.8050500],[29478.9351100,28086.8050500],[29478.9351100,28053.1350500],[29518.1551100,28053.1350500],[29518.1551100,28086.8050500]]</t>
-  </si>
-  <si>
     <t>B116</t>
   </si>
   <si>
-    <t>[[27372.3551100,28159.5350500],[27372.3551100,28193.2050500],[27333.1351100,28193.2050500],[27333.1351100,28159.5350500],[27372.3551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B117</t>
   </si>
   <si>
-    <t>[[27493.7551100,28159.5350500],[27493.7551100,28193.2050500],[27454.5351100,28193.2050500],[27454.5351100,28159.5350500],[27493.7551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B118</t>
   </si>
   <si>
-    <t>[[27615.1551100,28159.5350500],[27615.1551100,28193.2050500],[27575.9351100,28193.2050500],[27575.9351100,28159.5350500],[27615.1551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B119</t>
   </si>
   <si>
-    <t>[[27752.9551100,28159.5350500],[27752.9551100,28193.2050500],[27713.7351100,28193.2050500],[27713.7351100,28159.5350500],[27752.9551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B120</t>
   </si>
   <si>
-    <t>[[27874.3551100,28159.5350500],[27874.3551100,28193.2050500],[27835.1351100,28193.2050500],[27835.1351100,28159.5350500],[27874.3551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B121</t>
   </si>
   <si>
-    <t>[[27995.7551100,28159.5350500],[27995.7551100,28193.2050500],[27956.5351100,28193.2050500],[27956.5351100,28159.5350500],[27995.7551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B122</t>
   </si>
   <si>
-    <t>[[28133.5551100,28159.5350500],[28133.5551100,28193.2050500],[28094.3351100,28193.2050500],[28094.3351100,28159.5350500],[28133.5551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B123</t>
   </si>
   <si>
-    <t>[[28254.9551100,28159.5350500],[28254.9551100,28193.2050500],[28215.7351100,28193.2050500],[28215.7351100,28159.5350500],[28254.9551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B124</t>
   </si>
   <si>
-    <t>[[28376.3551100,28159.5350500],[28376.3551100,28193.2050500],[28337.1351100,28193.2050500],[28337.1351100,28159.5350500],[28376.3551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B125</t>
   </si>
   <si>
-    <t>[[28514.1551100,28159.5350500],[28514.1551100,28193.2050500],[28474.9351100,28193.2050500],[28474.9351100,28159.5350500],[28514.1551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B126</t>
   </si>
   <si>
-    <t>[[28635.5551100,28159.5350500],[28635.5551100,28193.2050500],[28596.3351100,28193.2050500],[28596.3351100,28159.5350500],[28635.5551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B127</t>
   </si>
   <si>
-    <t>[[28756.9551100,28159.5350500],[28756.9551100,28193.2050500],[28717.7351100,28193.2050500],[28717.7351100,28159.5350500],[28756.9551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B128</t>
   </si>
   <si>
-    <t>[[28894.7551100,28159.5350500],[28894.7551100,28193.2050500],[28855.5351100,28193.2050500],[28855.5351100,28159.5350500],[28894.7551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B129</t>
   </si>
   <si>
-    <t>[[29016.1551100,28159.5350500],[29016.1551100,28193.2050500],[28976.9351100,28193.2050500],[28976.9351100,28159.5350500],[29016.1551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B130</t>
   </si>
   <si>
-    <t>[[29137.5551100,28159.5350500],[29137.5551100,28193.2050500],[29098.3351100,28193.2050500],[29098.3351100,28159.5350500],[29137.5551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B131</t>
   </si>
   <si>
-    <t>[[29275.3551100,28159.5350500],[29275.3551100,28193.2050500],[29236.1351100,28193.2050500],[29236.1351100,28159.5350500],[29275.3551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B132</t>
   </si>
   <si>
-    <t>[[29396.7551100,28159.5350500],[29396.7551100,28193.2050500],[29357.5351100,28193.2050500],[29357.5351100,28159.5350500],[29396.7551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B133</t>
   </si>
   <si>
-    <t>[[29518.1551100,28159.5350500],[29518.1551100,28193.2050500],[29478.9351100,28193.2050500],[29478.9351100,28159.5350500],[29518.1551100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B134</t>
   </si>
   <si>
-    <t>[[29616.7351100,27930.3350500],[29655.9551100,27930.3350500],[29655.9551100,27964.0050500],[29616.7351100,27964.0050500],[29616.7351100,27930.3350500]]</t>
-  </si>
-  <si>
     <t>B135</t>
   </si>
   <si>
-    <t>[[29616.7351100,27823.9350500],[29655.9551100,27857.6050500],[29616.7351100,27857.6050500],[29655.9551100,27851.1386968],[29627.6632884,27823.9350500],[29616.7351100,27823.9350500]]</t>
-  </si>
-  <si>
     <t>B136</t>
   </si>
   <si>
-    <t>[[29616.7351100,28053.1350500],[29655.9551100,28053.1350500],[29655.9551100,28086.8050500],[29616.7351100,28086.8050500],[29616.7351100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B137</t>
   </si>
   <si>
-    <t>[[29616.7351100,28159.5350500],[29655.9551100,28159.5350500],[29655.9551100,28193.2050500],[29616.7351100,28193.2050500],[29616.7351100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B138</t>
   </si>
   <si>
-    <t>[[27372.3551100,28265.9350500],[27348.0936481,28265.9350500],[27372.3551100,28289.1775687],[27372.3551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B139</t>
   </si>
   <si>
-    <t>[[27493.7551100,28265.9350500],[27493.7551100,28299.6050500],[27454.5351100,28299.6050500],[27454.5351100,28265.9350500],[27493.7551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B140</t>
   </si>
   <si>
-    <t>[[27615.1551100,28265.9350500],[27615.1551100,28299.6050500],[27575.9351100,28299.6050500],[27575.9351100,28265.9350500],[27615.1551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B141</t>
   </si>
   <si>
-    <t>[[27752.9551100,28265.9350500],[27752.9551100,28299.6050500],[27713.7351100,28299.6050500],[27713.7351100,28265.9350500],[27752.9551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B142</t>
   </si>
   <si>
-    <t>[[27874.3551100,28265.9350500],[27835.1351100,28299.6050500],[27835.1351100,28265.9350500],[27844.4062213,28299.6050500],[27850.1726177,28294.6488000],[27874.3551100,28295.1863173],[27874.3551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B143</t>
   </si>
   <si>
-    <t>[[27995.7551100,28265.9350500],[27956.5351100,28265.9350500],[27956.5351100,28297.0129765],[27995.7551100,28297.8847406],[27995.7551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B144</t>
   </si>
   <si>
-    <t>[[28133.5551100,28265.9350500],[28133.5551100,28299.6050500],[28094.3351100,28299.6050500],[28094.3351100,28265.9350500],[28133.5551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B145</t>
   </si>
   <si>
-    <t>[[28254.9551100,28265.9350500],[28254.9551100,28299.6050500],[28215.7351100,28299.6050500],[28215.7351100,28265.9350500],[28254.9551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B146</t>
   </si>
   <si>
-    <t>[[28376.3551100,28265.9350500],[28376.3551100,28299.6050500],[28337.1351100,28299.6050500],[28337.1351100,28265.9350500],[28376.3551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B147</t>
   </si>
   <si>
-    <t>[[28514.1551100,28265.9350500],[28514.1551100,28299.6050500],[28474.9351100,28299.6050500],[28474.9351100,28265.9350500],[28514.1551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B148</t>
   </si>
   <si>
-    <t>[[28635.5551100,28265.9350500],[28635.5551100,28299.6050500],[28596.3351100,28299.6050500],[28596.3351100,28265.9350500],[28635.5551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B149</t>
   </si>
   <si>
-    <t>[[28756.9551100,28265.9350500],[28756.9551100,28299.6050500],[28717.7351100,28299.6050500],[28717.7351100,28265.9350500],[28756.9551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B150</t>
   </si>
   <si>
-    <t>[[28894.7551100,28265.9350500],[28894.7551100,28299.6050500],[28855.5351100,28299.6050500],[28855.5351100,28265.9350500],[28894.7551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B151</t>
   </si>
   <si>
-    <t>[[29016.1551100,28265.9350500],[29016.1551100,28299.6050500],[28976.9351100,28299.6050500],[28976.9351100,28265.9350500],[29016.1551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B152</t>
   </si>
   <si>
-    <t>[[29137.5551100,28265.9350500],[29137.5551100,28299.6050500],[29098.3351100,28299.6050500],[29098.3351100,28265.9350500],[29137.5551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B153</t>
   </si>
   <si>
-    <t>[[29275.3551100,28265.9350500],[29275.3551100,28299.6050500],[29236.1351100,28299.6050500],[29236.1351100,28265.9350500],[29275.3551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B154</t>
   </si>
   <si>
-    <t>[[29396.7551100,28265.9350500],[29396.7551100,28299.6050500],[29357.5351100,28299.6050500],[29357.5351100,28265.9350500],[29396.7551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B155</t>
   </si>
   <si>
-    <t>[[29518.1551100,28265.9350500],[29518.1551100,28299.6050500],[29478.9351100,28299.6050500],[29478.9351100,28265.9350500],[29518.1551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B156</t>
   </si>
   <si>
-    <t>[[29655.9551100,28265.9350500],[29655.9551100,28299.6050500],[29616.7351100,28299.6050500],[29616.7351100,28265.9350500],[29655.9551100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B157</t>
   </si>
   <si>
-    <t>[[29738.1351100,27930.3350500],[29738.1351100,27964.0050500],[29773.3362371,27964.0050500],[29738.3194013,27930.3350500],[29738.1351100,27930.3350500]]</t>
-  </si>
-  <si>
     <t>B158</t>
   </si>
   <si>
-    <t>[[29738.1351100,28053.1350500],[29777.3551100,28053.1350500],[29777.3551100,28086.8050500],[29738.1351100,28086.8050500],[29738.1351100,28053.1350500]]</t>
-  </si>
-  <si>
     <t>B159</t>
   </si>
   <si>
-    <t>[[29859.5351100,28086.8050500],[29859.5351100,28053.1350500],[29875.2036200,28086.8050500],[29875.2036200,28061.9543566],[29866.0315317,28053.1350500],[29859.5351100,28086.8050500]]</t>
-  </si>
-  <si>
     <t>B160</t>
   </si>
   <si>
-    <t>[[29738.1351100,28159.5350500],[29777.3551100,28159.5350500],[29777.3551100,28193.2050500],[29738.1351100,28193.2050500],[29738.1351100,28159.5350500]]</t>
-  </si>
-  <si>
     <t>B161</t>
   </si>
   <si>
-    <t>[[29859.5351100,28193.2050500],[29859.5351100,28159.5350500],[29875.2036200,28193.2050500],[29875.2036200,28159.5350500],[29859.5351100,28193.2050500]]</t>
-  </si>
-  <si>
     <t>B162</t>
   </si>
   <si>
-    <t>[[29738.1351100,28265.9350500],[29777.3551100,28265.9350500],[29777.3551100,28299.6050500],[29738.1351100,28299.6050500],[29738.1351100,28265.9350500]]</t>
-  </si>
-  <si>
     <t>B163</t>
   </si>
   <si>
-    <t>[[29859.5351100,28299.6050500],[29859.5351100,28265.9350500],[29875.2036200,28299.6050500],[29875.2036200,28265.9350500],[29859.5351100,28299.6050500]]</t>
-  </si>
-  <si>
     <t>B164</t>
   </si>
   <si>
-    <t>[[27493.7551100,28372.3350500],[27459.1581837,28372.3350500],[27493.7551100,28405.4789599],[27493.7551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B165</t>
   </si>
   <si>
-    <t>[[27615.1551100,28372.3350500],[27615.1551100,28406.0050500],[27575.9351100,28406.0050500],[27575.9351100,28372.3350500],[27615.1551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B166</t>
   </si>
   <si>
-    <t>[[27752.9551100,28372.3350500],[27713.7351100,28406.0050500],[27713.7351100,28372.3350500],[27720.6141238,28406.0050500],[27752.9551100,28378.2077916],[27752.9551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B167</t>
   </si>
   <si>
-    <t>[[29518.1551100,28372.3350500],[29518.1551100,28406.0050500],[29478.9351100,28406.0050500],[29478.9351100,28372.3350500],[29518.1551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B168</t>
   </si>
   <si>
-    <t>[[29655.9551100,28372.3350500],[29655.9551100,28406.0050500],[29616.7351100,28406.0050500],[29616.7351100,28372.3350500],[29655.9551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B169</t>
   </si>
   <si>
-    <t>[[29777.3551100,28372.3350500],[29777.3551100,28406.0050500],[29738.1351100,28406.0050500],[29738.1351100,28372.3350500],[29777.3551100,28372.3350500]]</t>
-  </si>
-  <si>
     <t>B170</t>
   </si>
   <si>
-    <t>[[29859.5351100,28406.0050500],[29859.5351100,28372.3350500],[29875.2036200,28406.0050500],[29875.2036200,28372.3350500],[29859.5351100,28406.0050500]]</t>
-  </si>
-  <si>
     <t>B171</t>
   </si>
   <si>
-    <t>[[27615.1551100,28478.7350500],[27575.9351100,28478.7350500],[27575.9351100,28484.2075294],[27601.3270000,28508.5330000],[27615.1551100,28496.6476621],[27615.1551100,28478.7350500]]</t>
-  </si>
-  <si>
     <t>B172</t>
   </si>
   <si>
-    <t>[[29518.1551100,28478.7350500],[29501.1931633,28478.7350500],[29518.1551100,28503.4557191],[29518.1551100,28478.7350500]]</t>
-  </si>
-  <si>
     <t>B173</t>
   </si>
   <si>
-    <t>[[29655.9551100,28478.7350500],[29655.9551100,28512.4050500],[29616.7351100,28512.4050500],[29616.7351100,28478.7350500],[29655.9551100,28478.7350500]]</t>
-  </si>
-  <si>
     <t>B174</t>
   </si>
   <si>
-    <t>[[29777.3551100,28478.7350500],[29777.3551100,28512.4050500],[29738.1351100,28512.4050500],[29738.1351100,28478.7350500],[29777.3551100,28478.7350500]]</t>
-  </si>
-  <si>
     <t>B175</t>
   </si>
   <si>
-    <t>[[29859.5351100,28512.4050500],[29859.5351100,28478.7350500],[29875.2036200,28512.4050500],[29875.2036200,28478.7350500],[29859.5351100,28512.4050500]]</t>
-  </si>
-  <si>
     <t>B176</t>
   </si>
   <si>
-    <t>[[29647.2046747,28691.5350500],[29649.3192000,28694.6168000],[29654.1876679,28691.5350500],[29647.2046747,28691.5350500]]</t>
-  </si>
-  <si>
     <t>B177</t>
   </si>
   <si>
-    <t>[[29655.9551100,28585.1350500],[29655.9551100,28618.8050500],[29616.7351100,28618.8050500],[29616.7351100,28585.1350500],[29655.9551100,28585.1350500]]</t>
-  </si>
-  <si>
     <t>B178</t>
   </si>
   <si>
-    <t>[[29777.3551100,28585.1350500],[29738.1351100,28618.8050500],[29738.1351100,28585.1350500],[29769.0846167,28618.8050500],[29777.3551100,28613.5698111],[29777.3551100,28585.1350500]]</t>
+    <t>[[27254.7451100,26752.8700500],[27254.7451100,26698.0413537],[27171.8142000,26744.3866000],[27160.9199992,26752.8700500],[27254.7451100,26752.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27328.4601100,26699.0500500],[27387.5451100,26752.8700500],[27286.5451100,26752.8700500],[27328.4601100,26714.6900500],[27345.6301100,26714.6900500],[27345.6301100,26699.0500500],[27387.5451100,26674.9245899],[27286.5451100,26692.1147569],[27328.4601100,26699.0500500]]</t>
+  </si>
+  <si>
+    <t>[[27096.4301100,26806.4500500],[27138.3451100,26860.2700500],[27079.2601100,26822.0900500],[27096.4301100,26822.0900500],[27138.3451100,26770.4493978],[27079.2601100,26819.0769704],[27040.5433670,26860.2700500],[27092.1141153,26806.4500500],[27096.4301100,26806.4500500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,26768.2700500],[27212.8301100,26806.4500500],[27254.7451100,26860.2700500],[27153.7451100,26860.2700500],[27153.7451100,26768.2700500],[27195.6601100,26806.4500500],[27195.6601100,26822.0900500],[27212.8301100,26822.0900500],[27254.7451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,26768.2700500],[27345.6301100,26806.4500500],[27387.5451100,26860.2700500],[27286.5451100,26860.2700500],[27286.5451100,26768.2700500],[27328.4601100,26806.4500500],[27328.4601100,26822.0900500],[27345.6301100,26822.0900500],[27387.5451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,26645.4700500],[27503.9451100,26613.5032909],[27491.1851000,26617.5418000],[27474.4068,26641.2076000],[27464.9341173,26645.4700500],[27503.9451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27519.3451100,26645.4700500],[27560.1785433,26645.4700500],[27543.4184000,26601.0101000],[27519.3451100,26608.6292320],[27519.3451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,26752.8700500],[27578.4301100,26714.6900500],[27519.3451100,26752.8700500],[27519.3451100,26660.8700500],[27620.3451100,26660.8700500],[27578.4301100,26699.0500500],[27561.2601100,26699.0500500],[27561.2601100,26714.6900500],[27591.3262500,26660.8700500],[27568.8730000,26668.534],[27565.9839077,26660.8700500],[27620.3451100,26752.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27591.3262500,26660.8700500],[27568.8730000,26668.534],[27591.3262500,26660.8700500],[27591.3262500,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27444.8601100,26699.0500500],[27503.9451100,26660.8700500],[27503.9451100,26752.8700500],[27402.9451100,26752.8700500],[27444.8601100,26714.6900500],[27462.0301100,26714.6900500],[27462.0301100,26699.0500500],[27430.7098300,26660.8700500],[27427.8191,26662.1708000],[27402.9451100,26670.8115430],[27444.8601100,26699.0500500]]</t>
+  </si>
+  <si>
+    <t>[[27402.9451100,26768.2700500],[27444.8601100,26806.4500500],[27503.9451100,26768.2700500],[27503.9451100,26860.2700500],[27402.9451100,26860.2700500],[27444.8601100,26822.0900500],[27462.0301100,26822.0900500],[27462.0301100,26806.4500500],[27402.9451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,26860.2700500],[27578.4301100,26822.0900500],[27519.3451100,26860.2700500],[27519.3451100,26768.2700500],[27620.3451100,26768.2700500],[27578.4301100,26806.4500500],[27561.2601100,26806.4500500],[27561.2601100,26822.0900500],[27620.3451100,26860.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27138.3451100,26875.6700500],[27064.3576294,26875.6700500],[27138.3451100,26919.4087014],[27138.3451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,26875.6700500],[27212.8301100,26913.8500500],[27254.7451100,26967.6700500],[27153.7451100,26875.6700500],[27195.6601100,26913.8500500],[27195.6601100,26929.4900500],[27212.8301100,26929.4900500],[27153.7451100,26928.5126096],[27219.9831002,26967.6700500],[27254.7451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,26875.6700500],[27345.6301100,26913.8500500],[27387.5451100,26967.6700500],[27286.5451100,26967.6700500],[27286.5451100,26875.6700500],[27328.4601100,26913.8500500],[27328.4601100,26929.4900500],[27345.6301100,26929.4900500],[27387.5451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,26875.6700500],[27462.0301100,26913.8500500],[27503.9451100,26967.6700500],[27402.9451100,26967.6700500],[27402.9451100,26875.6700500],[27444.8601100,26913.8500500],[27444.8601100,26929.4900500],[27462.0301100,26929.4900500],[27503.9451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,26875.6700500],[27578.4301100,26913.8500500],[27620.3451100,26967.6700500],[27519.3451100,26967.6700500],[27519.3451100,26875.6700500],[27561.2601100,26913.8500500],[27561.2601100,26929.4900500],[27578.4301100,26929.4900500],[27620.3451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,26645.4700500],[27695.6406985,26645.4700500],[27689.1809,26627.4694000],[27652.1451100,26640.1107968],[27652.1451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,26660.8700500],[27694.0601100,26699.0500500],[27652.1451100,26752.8700500],[27694.0601100,26714.6900500],[27711.2301100,26714.6900500],[27711.2301100,26699.0500500],[27722.6591659,26752.8700500],[27728.5812334,26737.2610000],[27701.1672154,26660.8700500],[27652.1451100,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,26768.2700500],[27694.0601100,26806.4500500],[27652.1451100,26860.2700500],[27694.0601100,26822.0900500],[27711.2301100,26822.0900500],[27711.2301100,26806.4500500],[27724.0156500,26860.2700500],[27732.4651000,26846.4126000],[27722.4134880,26768.2700500],[27652.1451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,26875.6700500],[27652.1451100,26967.6700500],[27658.8921737,26967.6700500],[27654.5022,26952.3543000],[27662.6991000,26921.1415000],[27684.3662,26925.2968000],[27714.6256447,26875.6700500],[27652.1451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,26983.0700500],[27246.0334507,26983.0700500],[27254.7451100,26988.2200595],[27254.7451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,26983.0700500],[27345.6301100,27021.2500500],[27286.5451100,26983.0700500],[27328.4601100,27021.2500500],[27345.6301100,27036.8900500],[27286.5451100,27007.0190388],[27337.0743511,27036.8900500],[27387.5451100,27066.7264887],[27328.4601100,27031.7976305],[27387.5451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,26983.0700500],[27462.0301100,27021.2500500],[27503.9451100,27075.0700500],[27402.9451100,27075.0700500],[27402.9451100,26983.0700500],[27444.8601100,27021.2500500],[27444.8601100,27036.8900500],[27462.0301100,27036.8900500],[27503.9451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,26983.0700500],[27578.4301100,27021.2500500],[27620.3451100,27075.0700500],[27519.3451100,27075.0700500],[27519.3451100,26983.0700500],[27561.2601100,27021.2500500],[27561.2601100,27036.8900500],[27578.4301100,27036.8900500],[27620.3451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27711.2301100,27021.2500500],[27652.1451100,27075.0700500],[27652.1451100,26983.0700500],[27694.0601100,27021.2500500],[27694.0601100,27036.8900500],[27711.2301100,27036.8900500],[27733.3230663,27075.0700500],[27676.5135677,26983.0700500],[27663.5040000,26983.7598000],[27663.3062960,26983.0700500],[27702.3369128,26983.0700500],[27711.2301100,27021.2500500]]</t>
+  </si>
+  <si>
+    <t>[[27676.5135677,26983.0700500],[27663.5040000,26983.7598000],[27676.5135677,26983.0700500],[27676.5135677,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27985.9451100,27075.0700500],[27985.9451100,27043.3078601],[27968.0825000,27046.3002000],[27951.4639885,27075.0700500],[27985.9451100,27075.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,27197.8700500],[27609.3850933,27197.8700500],[27620.3451100,27204.3492049],[27620.3451100,27197.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,27090.4700500],[27427.7092720,27090.4700500],[27503.9451100,27135.5378468],[27503.9451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,27090.4700500],[27578.4301100,27128.6500500],[27620.3451100,27182.4700500],[27519.3451100,27090.4700500],[27561.2601100,27128.6500500],[27561.2601100,27144.2900500],[27578.4301100,27144.2900500],[27519.3451100,27144.6417550],[27583.3347428,27182.4700500],[27620.3451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,27197.8700500],[27711.2301100,27251.6900500],[27711.2301100,27236.0500500],[27694.0601100,27236.0500500],[27652.1451100,27223.1481842],[27700.4259937,27251.6900500],[27718.2695776,27262.2385143],[27753.1451100,27208.8594000],[27712.2897000,27208.8594000],[27694.0601100,27247.9267759],[27698.7054751,27197.8700500],[27753.1451100,27262.2385143],[27652.1451100,27197.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,27090.4700500],[27652.1451100,27114.1966130],[27718.699,27118.9242750],[27729.6664563,27090.4700500],[27652.1451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,27182.4700500],[27679.6691296,27182.4700500],[27652.1451100,27160.2037016],[27652.1451100,27182.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27926.8601100,27251.6900500],[27884.9451100,27197.8700500],[27985.9451100,27197.8700500],[27944.0301100,27251.6900500],[27944.0301100,27236.0500500],[27926.8601100,27236.0500500],[27884.9451100,27262.2385143],[27985.9451100,27262.2385143],[27926.8601100,27251.6900500]]</t>
+  </si>
+  <si>
+    <t>[[27810.4601100,27251.6900500],[27869.5451100,27197.8700500],[27827.6301100,27251.6900500],[27827.6301100,27236.0500500],[27810.4601100,27236.0500500],[27768.5451100,27262.2385143],[27849.5362693,27197.8700500],[27838.2862,27208.8594000],[27768.5451100,27208.8594000],[27869.5451100,27262.2385143],[27810.4601100,27251.6900500]]</t>
+  </si>
+  <si>
+    <t>[[27869.5451100,27182.4700500],[27869.5451100,27178.3249123],[27865.3016300,27182.4700500],[27869.5451100,27182.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27985.9451100,27090.4700500],[27944.0301100,27128.6500500],[27985.9451100,27182.4700500],[27884.9451100,27182.4700500],[27926.8601100,27128.6500500],[27926.8601100,27144.2900500],[27944.0301100,27144.2900500],[27942.5683885,27090.4700500],[27920.6641000,27128.3906000],[27884.9451100,27163.2818058],[27985.9451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28118.7451100,26967.6700500],[28076.8301100,26929.4900500],[28118.7451100,26901.6968920],[28101.0969000,26908.1890000],[28076.0935920,26929.4900500],[28064.5961000,26939.2851],[28053.5454010,26967.6700500],[28076.8301100,26928.8625888],[28118.7451100,26967.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28059.6601100,27021.2500500],[28118.7451100,26983.0700500],[28118.7451100,27075.0700500],[28017.7451100,27075.0700500],[28059.6601100,27036.8900500],[28076.8301100,27036.8900500],[28076.8301100,27021.2500500],[28047.5499433,26983.0700500],[28031.7735000,27023.5936000],[28019.7385,27037.6468000],[28017.7451100,27037.9807322],[28059.6601100,27021.2500500]]</t>
+  </si>
+  <si>
+    <t>[[28017.7451100,27197.8700500],[28059.6601100,27236.0500500],[28118.7451100,27197.8700500],[28059.6601100,27251.6900500],[28076.8301100,27251.6900500],[28076.8301100,27236.0500500],[28017.7451100,27262.2385143],[28118.7451100,27262.2385143],[28017.7451100,27197.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28017.7451100,27090.4700500],[28059.6601100,27128.6500500],[28118.7451100,27090.4700500],[28118.7451100,27182.4700500],[28017.7451100,27182.4700500],[28059.6601100,27144.2900500],[28076.8301100,27144.2900500],[28076.8301100,27128.6500500],[28017.7451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27021.9451100,27321.6700500],[26980.0301100,27359.8500500],[26976.0866,27321.6700500],[26980.0301100,27363.7119580],[27021.9451100,27389.7822420],[26976.0866,27359.8500500],[27021.9451100,27321.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27096.4301100,27359.8500500],[27138.3451100,27413.6700500],[27037.3451100,27321.6700500],[27079.2601100,27359.8500500],[27079.2601100,27375.4900500],[27096.4301100,27375.4900500],[27037.3451100,27399.3607312],[27138.3451100,27359.8530316],[27070.7592690,27321.6700500],[27060.3511923,27413.6700500],[27096.4301100,27359.8500500]]</t>
+  </si>
+  <si>
+    <t>[[27153.7451100,27413.6700500],[27233.6040002,27413.6700500],[27153.7451100,27368.5533438],[27153.7451100,27413.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,26645.4700500],[28351.5451100,26636.2025177],[28341.8589659,26645.4700500],[28351.5451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,26752.8700500],[28309.6301100,26714.6900500],[28250.5451100,26752.8700500],[28351.5451100,26660.8700500],[28309.6301100,26699.0500500],[28292.4601100,26699.0500500],[28292.4601100,26714.6900500],[28325.7633524,26660.8700500],[28250.5451100,26732.8375419],[28351.5451100,26752.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28235.1451100,26752.8700500],[28235.1451100,26747.5719911],[28229.6077393,26752.8700500],[28235.1451100,26752.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28176.0601100,26806.4500500],[28235.1451100,26768.2700500],[28235.1451100,26860.2700500],[28176.0601100,26822.0900500],[28193.2301100,26822.0900500],[28193.2301100,26806.4500500],[28213.5121258,26768.2700500],[28146.6996000,26832.1951000],[28156.3054046,26860.2700500],[28176.0601100,26806.4500500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,26860.2700500],[28309.6301100,26822.0900500],[28250.5451100,26860.2700500],[28250.5451100,26768.2700500],[28351.5451100,26768.2700500],[28309.6301100,26806.4500500],[28292.4601100,26806.4500500],[28292.4601100,26822.0900500],[28351.5451100,26860.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28176.0601100,26913.8500500],[28235.1451100,26875.6700500],[28235.1451100,26967.6700500],[28134.1451100,26967.6700500],[28176.0601100,26929.4900500],[28193.2301100,26929.4900500],[28193.2301100,26913.8500500],[28161.5744929,26875.6700500],[28164.6960000,26884.7933000],[28134.1451100,26896.0318153],[28176.0601100,26913.8500500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,26967.6700500],[28309.6301100,26929.4900500],[28250.5451100,26967.6700500],[28250.5451100,26875.6700500],[28351.5451100,26875.6700500],[28309.6301100,26913.8500500],[28292.4601100,26913.8500500],[28292.4601100,26929.4900500],[28351.5451100,26967.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,27075.0700500],[28309.6301100,27036.8900500],[28250.5451100,27075.0700500],[28250.5451100,26983.0700500],[28351.5451100,26983.0700500],[28309.6301100,27021.2500500],[28292.4601100,27021.2500500],[28292.4601100,27036.8900500],[28351.5451100,27075.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28134.1451100,26983.0700500],[28176.0601100,27021.2500500],[28235.1451100,26983.0700500],[28235.1451100,27075.0700500],[28134.1451100,27075.0700500],[28176.0601100,27036.8900500],[28193.2301100,27036.8900500],[28193.2301100,27021.2500500],[28134.1451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28134.1451100,27197.8700500],[28176.0601100,27236.0500500],[28235.1451100,27197.8700500],[28176.0601100,27251.6900500],[28193.2301100,27251.6900500],[28193.2301100,27236.0500500],[28134.1451100,27262.2385143],[28188.5745314,27262.2385143],[28235.1451100,27215.4107140],[28134.1451100,27197.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28134.1451100,27090.4700500],[28176.0601100,27128.6500500],[28235.1451100,27090.4700500],[28235.1451100,27182.4700500],[28134.1451100,27182.4700500],[28176.0601100,27144.2900500],[28193.2301100,27144.2900500],[28193.2301100,27128.6500500],[28134.1451100,27090.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28250.5451100,27182.4700500],[28250.5451100,27090.4700500],[28351.5451100,27090.4700500],[28309.6301100,27128.6500500],[28292.4601100,27128.6500500],[28292.4601100,27144.2900500],[28267.9048333,27182.4700500],[28309.6301100,27140.5143135],[28351.5451100,27098.3678059],[28305.8751134,27144.2900500],[28250.5451100,27182.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27138.3451100,27521.0700500],[27138.3451100,27468.6007323],[27111.6259351,27521.0700500],[27138.3451100,27521.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27138.3451100,27429.0700500],[27085.1108382,27429.0700500],[27138.3451100,27462.1806925],[27138.3451100,27429.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27429.0700500],[27212.8301100,27467.2500500],[27254.7451100,27521.0700500],[27153.7451100,27521.0700500],[27153.7451100,27429.0700500],[27195.6601100,27467.2500500],[27195.6601100,27482.8900500],[27212.8301100,27482.8900500],[27254.7451100,27429.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,27521.0700500],[27286.5451100,27521.0700500],[27328.4601100,27482.8900500],[27345.6301100,27482.8900500],[27387.5451100,27500.6399015],[27328.4601100,27467.2595155],[27345.6301100,27476.9597986],[27286.5451100,27443.5794125],[27387.5451100,27521.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27402.9451100,27521.0700500],[27423.7075234,27521.0700500],[27402.9451100,27509.3402137],[27402.9451100,27521.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28425.2601100,26591.6500500],[28484.3451100,26645.4700500],[28383.3451100,26645.4700500],[28425.2601100,26607.2900500],[28442.4301100,26607.2900500],[28442.4301100,26591.6500500],[28484.3451100,26587.4416309],[28429.8066000,26561.3233000],[28383.3451100,26605.7768368],[28425.2601100,26591.6500500]]</t>
+  </si>
+  <si>
+    <t>[[28383.3451100,26660.8700500],[28425.2601100,26699.0500500],[28484.3451100,26660.8700500],[28484.3451100,26752.8700500],[28383.3451100,26752.8700500],[28425.2601100,26714.6900500],[28442.4301100,26714.6900500],[28442.4301100,26699.0500500],[28383.3451100,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28383.3451100,26768.2700500],[28425.2601100,26806.4500500],[28484.3451100,26768.2700500],[28484.3451100,26860.2700500],[28383.3451100,26860.2700500],[28425.2601100,26822.0900500],[28442.4301100,26822.0900500],[28442.4301100,26806.4500500],[28383.3451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28383.3451100,26875.6700500],[28425.2601100,26913.8500500],[28484.3451100,26875.6700500],[28383.3451100,26967.6700500],[28425.2601100,26929.4900500],[28442.4301100,26929.4900500],[28442.4301100,26913.8500500],[28481.5249527,26967.6700500],[28484.3451100,26964.8343162],[28383.3451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28383.3451100,26983.0700500],[28425.2601100,27021.2500500],[28383.3451100,27066.3921660],[28428.2392637,27021.2500500],[28466.2095437,26983.0700500],[28425.2601100,27024.2456583],[28383.3451100,26983.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27138.3451100,27536.4700500],[27096.4301100,27574.6500500],[27103.7837273,27536.4700500],[27096.4301100,27587.3598697],[27138.3451100,27619.7489018],[27084.3411627,27574.6500500],[27138.3451100,27536.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27536.4700500],[27212.8301100,27574.6500500],[27254.7451100,27628.4700500],[27153.7451100,27628.4700500],[27153.7451100,27536.4700500],[27195.6601100,27574.6500500],[27195.6601100,27590.2900500],[27212.8301100,27590.2900500],[27254.7451100,27536.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,27536.4700500],[27345.6301100,27574.6500500],[27387.5451100,27628.4700500],[27286.5451100,27628.4700500],[27286.5451100,27536.4700500],[27328.4601100,27574.6500500],[27328.4601100,27590.2900500],[27345.6301100,27590.2900500],[27387.5451100,27536.4700500]]</t>
+  </si>
+  <si>
+    <t>[[27462.0301100,27574.6500500],[27503.9451100,27628.4700500],[27402.9451100,27628.4700500],[27402.9451100,27536.4700500],[27444.8601100,27574.6500500],[27444.8601100,27590.2900500],[27462.0301100,27590.2900500],[27503.9451100,27566.4007028],[27450.9663153,27536.4700500],[27462.0301100,27574.6500500]]</t>
+  </si>
+  <si>
+    <t>[[27519.3451100,27628.4700500],[27613.8110466,27628.4700500],[27519.3451100,27575.1010150],[27519.3451100,27628.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28717.1451100,26645.4700500],[28717.1451100,26635.3919410],[28703.6586202,26645.4700500],[28717.1451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,26645.4700500],[28499.7451100,26645.4700500],[28600.7451100,26643.1852461],[28499.7451100,26594.8166453],[28600.7451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28675.2301100,26714.6900500],[28616.1451100,26752.8700500],[28616.1451100,26660.8700500],[28717.1451100,26660.8700500],[28675.2301100,26699.0500500],[28658.0601100,26699.0500500],[28658.0601100,26714.6900500],[28695.1450720,26752.8700500],[28683.0503949,26660.8700500],[28665.3277895,26674.1137000],[28717.1451100,26730.7485000],[28637.6733064,26660.8700500],[28675.2301100,26714.6900500]]</t>
+  </si>
+  <si>
+    <t>[[28683.0503949,26660.8700500],[28665.3277895,26674.1137000],[28683.0503949,26660.8700500],[28683.0503949,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28499.7451100,26660.8700500],[28541.6601100,26699.0500500],[28600.7451100,26660.8700500],[28600.7451100,26752.8700500],[28499.7451100,26752.8700500],[28541.6601100,26714.6900500],[28558.8301100,26714.6900500],[28558.8301100,26699.0500500],[28499.7451100,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28499.7451100,26768.2700500],[28541.6601100,26806.4500500],[28600.7451100,26768.2700500],[28499.7451100,26860.2700500],[28541.6601100,26822.0900500],[28558.8301100,26822.0900500],[28558.8301100,26806.4500500],[28588.3350123,26860.2700500],[28600.7451100,26847.7914081],[28499.7451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28616.1451100,26768.2700500],[28616.1451100,26832.3063498],[28679.8296631,26768.2700500],[28616.1451100,26768.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28499.7451100,26875.6700500],[28499.7451100,26949.3492579],[28573.0196034,26875.6700500],[28499.7451100,26875.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27643.8700500],[27169.5605511,27643.8700500],[27254.7451100,27709.6948243],[27254.7451100,27643.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,27643.8700500],[27345.6301100,27682.0500500],[27387.5451100,27735.8700500],[27286.5451100,27735.8700500],[27286.5451100,27643.8700500],[27328.4601100,27682.0500500],[27328.4601100,27697.6900500],[27345.6301100,27697.6900500],[27387.5451100,27643.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,27643.8700500],[27462.0301100,27682.0500500],[27503.9451100,27735.8700500],[27402.9451100,27735.8700500],[27402.9451100,27643.8700500],[27444.8601100,27682.0500500],[27444.8601100,27697.6900500],[27462.0301100,27697.6900500],[27503.9451100,27643.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,27643.8700500],[27578.4301100,27682.0500500],[27620.3451100,27735.8700500],[27519.3451100,27735.8700500],[27519.3451100,27643.8700500],[27561.2601100,27682.0500500],[27561.2601100,27697.6900500],[27578.4301100,27697.6900500],[27620.3451100,27643.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,27735.8700500],[27652.1451100,27735.8700500],[27694.0601100,27682.0500500],[27694.0601100,27697.6900500],[27711.2301100,27697.6900500],[27753.1451100,27707.1875728],[27708.6504020,27682.0500500],[27711.2301100,27683.5074698],[27652.1451100,27650.1270837],[27753.1451100,27735.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27768.5451100,27735.8700500],[27803.9145697,27735.8700500],[27768.5451100,27715.8878849],[27768.5451100,27735.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28748.9451100,26645.4700500],[28808.0301100,26607.2900500],[28801.9551317,26645.4700500],[28833.0370693,26614.2164386],[28793.3692989,26607.2900500],[28773.2297,26643.9424000],[28748.9451100,26631.7773682],[28808.0301100,26603.9952096],[28748.9451100,26645.4700500]]</t>
+  </si>
+  <si>
+    <t>[[28748.9451100,26660.8700500],[28748.9451100,26698.7728602],[28786.6397228,26660.8700500],[28748.9451100,26660.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27751.2700500],[27254.7451100,27843.2700500],[27251.6615872,27751.2700500],[27223.0750000,27798.3181000],[27226.4188259,27843.2700500],[27254.7451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,27751.2700500],[27345.6301100,27789.4500500],[27387.5451100,27843.2700500],[27286.5451100,27843.2700500],[27286.5451100,27751.2700500],[27328.4601100,27789.4500500],[27328.4601100,27805.0900500],[27345.6301100,27805.0900500],[27387.5451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,27751.2700500],[27462.0301100,27789.4500500],[27503.9451100,27843.2700500],[27402.9451100,27843.2700500],[27402.9451100,27751.2700500],[27444.8601100,27789.4500500],[27444.8601100,27805.0900500],[27462.0301100,27805.0900500],[27503.9451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,27751.2700500],[27578.4301100,27789.4500500],[27620.3451100,27843.2700500],[27519.3451100,27843.2700500],[27519.3451100,27751.2700500],[27561.2601100,27789.4500500],[27561.2601100,27805.0900500],[27578.4301100,27805.0900500],[27620.3451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,27751.2700500],[27711.2301100,27789.4500500],[27753.1451100,27843.2700500],[27652.1451100,27843.2700500],[27652.1451100,27751.2700500],[27694.0601100,27789.4500500],[27694.0601100,27805.0900500],[27711.2301100,27805.0900500],[27753.1451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27827.6301100,27789.4500500],[27869.5451100,27843.2700500],[27768.5451100,27843.2700500],[27768.5451100,27751.2700500],[27810.4601100,27789.4500500],[27810.4601100,27805.0900500],[27827.6301100,27805.0900500],[27869.5451100,27767.7033249],[27859.7350000,27767.4061000],[27831.1733617,27751.2700500],[27827.6301100,27789.4500500]]</t>
+  </si>
+  <si>
+    <t>[[27884.9451100,27843.2700500],[27916.6920292,27843.2700500],[27916.6920292,27769.1317737],[27884.9451100,27768.1699113],[27884.9451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28235.1451100,27843.2700500],[28235.1451100,27779.9524953],[28213.5551488,27779.2856983],[28213.5551488,27843.2700500],[28235.1451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28309.6301100,27789.4500500],[28351.5451100,27843.2700500],[28250.5451100,27843.2700500],[28292.4601100,27789.4500500],[28292.4601100,27805.0900500],[28309.6301100,27805.0900500],[28351.5451100,27783.5474609],[28250.5451100,27780.4281179],[28309.6301100,27789.4500500]]</t>
+  </si>
+  <si>
+    <t>[[28442.4301100,27789.4500500],[28484.3451100,27843.2700500],[28383.3451100,27843.2700500],[28425.2601100,27789.4500500],[28425.2601100,27805.0900500],[28442.4301100,27805.0900500],[28484.3451100,27787.6489337],[28383.3451100,27784.5295906],[28442.4301100,27789.4500500]]</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,27843.2700500],[28499.7451100,27843.2700500],[28541.6601100,27789.4500500],[28541.6601100,27805.0900500],[28558.8301100,27805.0900500],[28600.7451100,27811.1026611],[28580.1394423,27790.6075018],[28542.6627588,27789.4500500],[28558.8301100,27789.9493719],[28499.7451100,27788.1245563],[28600.7451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28616.1451100,27843.2700500],[28633.0859430,27843.2700500],[28616.1451100,27826.4200708],[28616.1451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,27735.8700500],[29082.7451100,27713.5903001],[29044.0414185,27735.8700500],[29082.7451100,27735.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28966.3451100,27843.2700500],[28865.3451100,27843.2700500],[28924.4301100,27805.0900500],[28966.3451100,27780.5958696],[28923.7945784,27805.0900500],[28865.3451100,27838.7364411],[28924.4301100,27804.7242068],[28966.3451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,27843.2700500],[29040.8301100,27805.0900500],[28981.7451100,27843.2700500],[29082.7451100,27751.2700500],[29040.8301100,27789.4500500],[29023.6601100,27789.4500500],[29023.6601100,27805.0900500],[29017.2890155,27751.2700500],[28981.7451100,27771.7308716],[29082.7451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27858.6700500],[27254.7451100,27950.6700500],[27227.5643806,27858.6700500],[27228.8681000,27876.1963],[27227.0892000,27922.6361000],[27223.1304469,27950.6700500],[27254.7451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,27966.0700500],[27254.7451100,28058.0700500],[27220.9557695,27966.0700500],[27211.193,28035.2052000],[27210.1523718,28058.0700500],[27254.7451100,27966.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,27858.6700500],[27345.6301100,27896.8500500],[27387.5451100,27950.6700500],[27286.5451100,27950.6700500],[27286.5451100,27858.6700500],[27328.4601100,27896.8500500],[27328.4601100,27912.4900500],[27345.6301100,27912.4900500],[27387.5451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27286.5451100,28058.0700500],[27328.4601100,28019.8900500],[27286.5451100,27966.0700500],[27387.5451100,27966.0700500],[27387.5451100,28058.0700500],[27345.6301100,28019.8900500],[27345.6301100,28004.2500500],[27328.4601100,28004.2500500],[27286.5451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27519.3451100,28058.0700500],[27561.2601100,28019.8900500],[27519.3451100,27966.0700500],[27620.3451100,27966.0700500],[27620.3451100,28058.0700500],[27578.4301100,28019.8900500],[27578.4301100,28004.2500500],[27561.2601100,28004.2500500],[27519.3451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27402.9451100,28058.0700500],[27444.8601100,28019.8900500],[27402.9451100,27966.0700500],[27503.9451100,27966.0700500],[27503.9451100,28058.0700500],[27462.0301100,28019.8900500],[27462.0301100,28004.2500500],[27444.8601100,28004.2500500],[27402.9451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,27858.6700500],[27462.0301100,27896.8500500],[27503.9451100,27950.6700500],[27402.9451100,27950.6700500],[27402.9451100,27858.6700500],[27444.8601100,27896.8500500],[27444.8601100,27912.4900500],[27462.0301100,27912.4900500],[27503.9451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,27858.6700500],[27578.4301100,27896.8500500],[27620.3451100,27950.6700500],[27519.3451100,27950.6700500],[27519.3451100,27858.6700500],[27561.2601100,27896.8500500],[27561.2601100,27912.4900500],[27578.4301100,27912.4900500],[27620.3451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,28058.0700500],[27694.0601100,28019.8900500],[27652.1451100,27966.0700500],[27753.1451100,27966.0700500],[27753.1451100,28058.0700500],[27711.2301100,28019.8900500],[27711.2301100,28004.2500500],[27694.0601100,28004.2500500],[27652.1451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,27858.6700500],[27711.2301100,27896.8500500],[27753.1451100,27950.6700500],[27652.1451100,27950.6700500],[27652.1451100,27858.6700500],[27694.0601100,27896.8500500],[27694.0601100,27912.4900500],[27711.2301100,27912.4900500],[27753.1451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27884.9451100,28058.0700500],[27926.8601100,28019.8900500],[27884.9451100,27966.0700500],[27985.9451100,27966.0700500],[27985.9451100,28058.0700500],[27944.0301100,28019.8900500],[27944.0301100,28004.2500500],[27926.8601100,28004.2500500],[27884.9451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27768.5451100,28058.0700500],[27810.4601100,28019.8900500],[27768.5451100,27966.0700500],[27869.5451100,27966.0700500],[27869.5451100,28058.0700500],[27827.6301100,28019.8900500],[27827.6301100,28004.2500500],[27810.4601100,28004.2500500],[27768.5451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[27869.5451100,27858.6700500],[27827.6301100,27896.8500500],[27869.5451100,27950.6700500],[27768.5451100,27950.6700500],[27768.5451100,27858.6700500],[27810.4601100,27896.8500500],[27810.4601100,27912.4900500],[27827.6301100,27912.4900500],[27869.5451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27985.9451100,27950.6700500],[27884.9451100,27950.6700500],[27884.9451100,27858.6700500],[27985.9451100,27927.1081942],[27916.6920292,27927.1081942],[27916.6920292,27858.6700500],[27985.9451100,27950.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28017.7451100,28058.0700500],[28059.6601100,28019.8900500],[28017.7451100,27966.0700500],[28118.7451100,27966.0700500],[28118.7451100,28058.0700500],[28076.8301100,28019.8900500],[28076.8301100,28004.2500500],[28059.6601100,28004.2500500],[28017.7451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28118.7451100,27950.6700500],[28017.7451100,27950.6700500],[28118.7451100,27927.1081942],[28017.7451100,27927.1081942],[28118.7451100,27950.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28250.5451100,28058.0700500],[28292.4601100,28019.8900500],[28250.5451100,27966.0700500],[28351.5451100,27966.0700500],[28351.5451100,28058.0700500],[28309.6301100,28019.8900500],[28309.6301100,28004.2500500],[28292.4601100,28004.2500500],[28250.5451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28134.1451100,28058.0700500],[28176.0601100,28019.8900500],[28134.1451100,27966.0700500],[28235.1451100,27966.0700500],[28235.1451100,28058.0700500],[28193.2301100,28019.8900500],[28193.2301100,28004.2500500],[28176.0601100,28004.2500500],[28134.1451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28235.1451100,27858.6700500],[28235.1451100,27950.6700500],[28134.1451100,27950.6700500],[28213.5551488,27858.6700500],[28213.5551488,27927.1081942],[28134.1451100,27927.1081942],[28235.1451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,27858.6700500],[28309.6301100,27896.8500500],[28351.5451100,27950.6700500],[28250.5451100,27950.6700500],[28250.5451100,27858.6700500],[28292.4601100,27896.8500500],[28292.4601100,27912.4900500],[28309.6301100,27912.4900500],[28351.5451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28383.3451100,28058.0700500],[28425.2601100,28019.8900500],[28383.3451100,27966.0700500],[28484.3451100,27966.0700500],[28484.3451100,28058.0700500],[28442.4301100,28019.8900500],[28442.4301100,28004.2500500],[28425.2601100,28004.2500500],[28383.3451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28484.3451100,27858.6700500],[28442.4301100,27896.8500500],[28484.3451100,27950.6700500],[28383.3451100,27950.6700500],[28383.3451100,27858.6700500],[28425.2601100,27896.8500500],[28425.2601100,27912.4900500],[28442.4301100,27912.4900500],[28484.3451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28616.1451100,28058.0700500],[28658.0601100,28019.8900500],[28616.1451100,27966.0700500],[28717.1451100,27966.0700500],[28717.1451100,28058.0700500],[28675.2301100,28019.8900500],[28675.2301100,28004.2500500],[28658.0601100,28004.2500500],[28616.1451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28499.7451100,28058.0700500],[28541.6601100,28019.8900500],[28499.7451100,27966.0700500],[28600.7451100,27966.0700500],[28600.7451100,28058.0700500],[28558.8301100,28019.8900500],[28558.8301100,28004.2500500],[28541.6601100,28004.2500500],[28499.7451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,27858.6700500],[28558.8301100,27896.8500500],[28600.7451100,27950.6700500],[28499.7451100,27950.6700500],[28499.7451100,27858.6700500],[28541.6601100,27896.8500500],[28541.6601100,27912.4900500],[28558.8301100,27912.4900500],[28600.7451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28675.2301100,27896.8500500],[28717.1451100,27950.6700500],[28616.1451100,27950.6700500],[28616.1451100,27858.6700500],[28658.0601100,27896.8500500],[28658.0601100,27912.4900500],[28675.2301100,27912.4900500],[28717.1451100,27924.0476559],[28715.3424125,27925.0853773],[28648.5689787,27858.6700500],[28675.2301100,27896.8500500]]</t>
+  </si>
+  <si>
+    <t>[[28748.9451100,28058.0700500],[28790.8601100,28019.8900500],[28748.9451100,27966.0700500],[28849.9451100,27966.0700500],[28849.9451100,28058.0700500],[28808.0301100,28019.8900500],[28808.0301100,28004.2500500],[28790.8601100,28004.2500500],[28748.9451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28849.9451100,27858.6700500],[28808.0301100,27896.8500500],[28849.9451100,27950.6700500],[28748.9451100,27950.6700500],[28790.8601100,27896.8500500],[28790.8601100,27912.4900500],[28808.0301100,27912.4900500],[28830.7170620,27858.6700500],[28748.9451100,27905.7420106],[28849.9451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[28981.7451100,28058.0700500],[29023.6601100,28019.8900500],[28981.7451100,27966.0700500],[29082.7451100,27966.0700500],[29082.7451100,28058.0700500],[29040.8301100,28019.8900500],[29040.8301100,28004.2500500],[29023.6601100,28004.2500500],[28981.7451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28865.3451100,28058.0700500],[28907.2601100,28019.8900500],[28865.3451100,27966.0700500],[28966.3451100,27966.0700500],[28966.3451100,28058.0700500],[28924.4301100,28019.8900500],[28924.4301100,28004.2500500],[28907.2601100,28004.2500500],[28865.3451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[28966.3451100,27858.6700500],[28924.4301100,27896.8500500],[28966.3451100,27950.6700500],[28865.3451100,27950.6700500],[28865.3451100,27858.6700500],[28907.2601100,27896.8500500],[28907.2601100,27912.4900500],[28924.4301100,27912.4900500],[28966.3451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,27858.6700500],[29040.8301100,27896.8500500],[29082.7451100,27950.6700500],[28981.7451100,27950.6700500],[28981.7451100,27858.6700500],[29023.6601100,27896.8500500],[29023.6601100,27912.4900500],[29040.8301100,27912.4900500],[29082.7451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[29156.4601100,27682.0500500],[29215.5451100,27735.8700500],[29114.5451100,27735.8700500],[29156.4601100,27697.6900500],[29173.6301100,27697.6900500],[29173.6301100,27682.0500500],[29215.5451100,27689.3646482],[29181.0594403,27656.9957322],[29114.5451100,27695.2846548],[29156.4601100,27682.0500500]]</t>
+  </si>
+  <si>
+    <t>[[29114.5451100,27751.2700500],[29156.4601100,27789.4500500],[29215.5451100,27751.2700500],[29215.5451100,27843.2700500],[29114.5451100,27843.2700500],[29156.4601100,27805.0900500],[29173.6301100,27805.0900500],[29173.6301100,27789.4500500],[29114.5451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29114.5451100,27966.0700500],[29156.4601100,28004.2500500],[29215.5451100,27966.0700500],[29215.5451100,28058.0700500],[29114.5451100,28058.0700500],[29156.4601100,28019.8900500],[29173.6301100,28019.8900500],[29173.6301100,28004.2500500],[29114.5451100,27966.0700500]]</t>
+  </si>
+  <si>
+    <t>[[29114.5451100,27858.6700500],[29156.4601100,27896.8500500],[29215.5451100,27858.6700500],[29215.5451100,27950.6700500],[29114.5451100,27950.6700500],[29156.4601100,27912.4900500],[29173.6301100,27912.4900500],[29173.6301100,27896.8500500],[29114.5451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[27254.7451100,28089.8700500],[27212.8301100,28128.0500500],[27208.7050858,28089.8700500],[27212.8301100,28136.3523674],[27254.7451100,28176.5070034],[27206.9674323,28128.0500500],[27254.7451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,28089.8700500],[27345.6301100,28128.0500500],[27387.5451100,28181.8700500],[27286.5451100,28181.8700500],[27286.5451100,28089.8700500],[27328.4601100,28128.0500500],[27328.4601100,28143.6900500],[27345.6301100,28143.6900500],[27387.5451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,28089.8700500],[27462.0301100,28128.0500500],[27503.9451100,28181.8700500],[27402.9451100,28181.8700500],[27402.9451100,28089.8700500],[27444.8601100,28128.0500500],[27444.8601100,28143.6900500],[27462.0301100,28143.6900500],[27503.9451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,28089.8700500],[27578.4301100,28128.0500500],[27620.3451100,28181.8700500],[27519.3451100,28181.8700500],[27519.3451100,28089.8700500],[27561.2601100,28128.0500500],[27561.2601100,28143.6900500],[27578.4301100,28143.6900500],[27620.3451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,28089.8700500],[27711.2301100,28128.0500500],[27753.1451100,28181.8700500],[27652.1451100,28181.8700500],[27652.1451100,28089.8700500],[27694.0601100,28128.0500500],[27694.0601100,28143.6900500],[27711.2301100,28143.6900500],[27753.1451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27869.5451100,28089.8700500],[27827.6301100,28128.0500500],[27869.5451100,28181.8700500],[27768.5451100,28181.8700500],[27768.5451100,28089.8700500],[27810.4601100,28128.0500500],[27810.4601100,28143.6900500],[27827.6301100,28143.6900500],[27869.5451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27985.9451100,28089.8700500],[27944.0301100,28128.0500500],[27985.9451100,28181.8700500],[27884.9451100,28181.8700500],[27884.9451100,28089.8700500],[27926.8601100,28128.0500500],[27926.8601100,28143.6900500],[27944.0301100,28143.6900500],[27985.9451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28118.7451100,28089.8700500],[28076.8301100,28128.0500500],[28118.7451100,28181.8700500],[28017.7451100,28181.8700500],[28017.7451100,28089.8700500],[28059.6601100,28128.0500500],[28059.6601100,28143.6900500],[28076.8301100,28143.6900500],[28118.7451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28235.1451100,28089.8700500],[28193.2301100,28128.0500500],[28235.1451100,28181.8700500],[28134.1451100,28181.8700500],[28134.1451100,28089.8700500],[28176.0601100,28128.0500500],[28176.0601100,28143.6900500],[28193.2301100,28143.6900500],[28235.1451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,28089.8700500],[28309.6301100,28128.0500500],[28351.5451100,28181.8700500],[28250.5451100,28181.8700500],[28250.5451100,28089.8700500],[28292.4601100,28128.0500500],[28292.4601100,28143.6900500],[28309.6301100,28143.6900500],[28351.5451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28484.3451100,28089.8700500],[28442.4301100,28128.0500500],[28484.3451100,28181.8700500],[28383.3451100,28181.8700500],[28383.3451100,28089.8700500],[28425.2601100,28128.0500500],[28425.2601100,28143.6900500],[28442.4301100,28143.6900500],[28484.3451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,28089.8700500],[28558.8301100,28128.0500500],[28600.7451100,28181.8700500],[28499.7451100,28181.8700500],[28499.7451100,28089.8700500],[28541.6601100,28128.0500500],[28541.6601100,28143.6900500],[28558.8301100,28143.6900500],[28600.7451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28717.1451100,28089.8700500],[28675.2301100,28128.0500500],[28717.1451100,28181.8700500],[28616.1451100,28181.8700500],[28616.1451100,28089.8700500],[28658.0601100,28128.0500500],[28658.0601100,28143.6900500],[28675.2301100,28143.6900500],[28717.1451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28849.9451100,28089.8700500],[28808.0301100,28128.0500500],[28849.9451100,28181.8700500],[28748.9451100,28181.8700500],[28748.9451100,28089.8700500],[28790.8601100,28128.0500500],[28790.8601100,28143.6900500],[28808.0301100,28143.6900500],[28849.9451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[28966.3451100,28089.8700500],[28924.4301100,28128.0500500],[28966.3451100,28181.8700500],[28865.3451100,28181.8700500],[28865.3451100,28089.8700500],[28907.2601100,28128.0500500],[28907.2601100,28143.6900500],[28924.4301100,28143.6900500],[28966.3451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,28089.8700500],[29040.8301100,28128.0500500],[29082.7451100,28181.8700500],[28981.7451100,28181.8700500],[28981.7451100,28089.8700500],[29023.6601100,28128.0500500],[29023.6601100,28143.6900500],[29040.8301100,28143.6900500],[29082.7451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[29215.5451100,28089.8700500],[29173.6301100,28128.0500500],[29215.5451100,28181.8700500],[29114.5451100,28181.8700500],[29114.5451100,28089.8700500],[29156.4601100,28128.0500500],[29156.4601100,28143.6900500],[29173.6301100,28143.6900500],[29215.5451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[29230.9451100,27735.8700500],[29265.0917158,27735.8700500],[29230.9451100,27703.8193858],[29230.9451100,27735.8700500]]</t>
+  </si>
+  <si>
+    <t>[[29230.9451100,27751.2700500],[29272.8601100,27789.4500500],[29331.9451100,27843.2700500],[29230.9451100,27843.2700500],[29272.8601100,27805.0900500],[29290.0301100,27805.0900500],[29290.0301100,27789.4500500],[29331.9451100,27798.6199378],[29281.4987933,27751.2700500],[29230.9451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29347.3451100,27843.2700500],[29379.5151002,27843.2700500],[29347.3451100,27813.0746754],[29347.3451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,27843.2700500],[29448.3451100,27776.0796760],[29383.8663835,27843.2700500],[29448.3451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>[[29230.9451100,27966.0700500],[29272.8601100,28004.2500500],[29331.9451100,27966.0700500],[29331.9451100,28058.0700500],[29230.9451100,28058.0700500],[29272.8601100,28019.8900500],[29290.0301100,28019.8900500],[29290.0301100,28004.2500500],[29230.9451100,27966.0700500]]</t>
+  </si>
+  <si>
+    <t>[[29230.9451100,27858.6700500],[29272.8601100,27896.8500500],[29331.9451100,27858.6700500],[29331.9451100,27950.6700500],[29230.9451100,27950.6700500],[29272.8601100,27912.4900500],[29290.0301100,27912.4900500],[29290.0301100,27896.8500500],[29230.9451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,27950.6700500],[29406.4301100,27912.4900500],[29347.3451100,27950.6700500],[29347.3451100,27858.6700500],[29448.3451100,27858.6700500],[29406.4301100,27896.8500500],[29389.2601100,27896.8500500],[29389.2601100,27912.4900500],[29448.3451100,27950.6700500]]</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,28058.0700500],[29406.4301100,28019.8900500],[29347.3451100,28058.0700500],[29347.3451100,27966.0700500],[29448.3451100,27966.0700500],[29406.4301100,28004.2500500],[29389.2601100,28004.2500500],[29389.2601100,28019.8900500],[29448.3451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,28181.8700500],[29406.4301100,28143.6900500],[29347.3451100,28181.8700500],[29347.3451100,28089.8700500],[29448.3451100,28089.8700500],[29406.4301100,28128.0500500],[29389.2601100,28128.0500500],[29389.2601100,28143.6900500],[29448.3451100,28181.8700500]]</t>
+  </si>
+  <si>
+    <t>[[29230.9451100,28089.8700500],[29272.8601100,28128.0500500],[29331.9451100,28089.8700500],[29331.9451100,28181.8700500],[29230.9451100,28181.8700500],[29272.8601100,28143.6900500],[29290.0301100,28143.6900500],[29290.0301100,28128.0500500],[29230.9451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>[[27387.5451100,28197.2700500],[27345.6301100,28235.4500500],[27387.5451100,28289.2700500],[27286.5451100,28197.2700500],[27328.4601100,28235.4500500],[27345.6301100,28251.0900500],[27286.5451100,28206.9714535],[27332.5978490,28251.0900500],[27372.4516457,28289.2700500],[27328.4601100,28247.1260895],[27387.5451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,28197.2700500],[27462.0301100,28235.4500500],[27503.9451100,28289.2700500],[27402.9451100,28289.2700500],[27402.9451100,28197.2700500],[27444.8601100,28235.4500500],[27444.8601100,28251.0900500],[27462.0301100,28251.0900500],[27503.9451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,28197.2700500],[27578.4301100,28235.4500500],[27620.3451100,28289.2700500],[27519.3451100,28289.2700500],[27519.3451100,28197.2700500],[27561.2601100,28235.4500500],[27561.2601100,28251.0900500],[27578.4301100,28251.0900500],[27620.3451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,28197.2700500],[27711.2301100,28235.4500500],[27753.1451100,28289.2700500],[27652.1451100,28289.2700500],[27652.1451100,28197.2700500],[27694.0601100,28235.4500500],[27694.0601100,28251.0900500],[27711.2301100,28251.0900500],[27753.1451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27869.5451100,28197.2700500],[27827.6301100,28235.4500500],[27869.5451100,28289.2700500],[27768.5451100,28289.2700500],[27768.5451100,28197.2700500],[27810.4601100,28235.4500500],[27810.4601100,28251.0900500],[27827.6301100,28251.0900500],[27869.5451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[27985.9451100,28197.2700500],[27944.0301100,28235.4500500],[27985.9451100,28289.2700500],[27884.9451100,28289.2700500],[27884.9451100,28197.2700500],[27926.8601100,28235.4500500],[27926.8601100,28251.0900500],[27944.0301100,28251.0900500],[27985.9451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28118.7451100,28197.2700500],[28076.8301100,28235.4500500],[28118.7451100,28289.2700500],[28017.7451100,28289.2700500],[28017.7451100,28197.2700500],[28059.6601100,28235.4500500],[28059.6601100,28251.0900500],[28076.8301100,28251.0900500],[28118.7451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28235.1451100,28197.2700500],[28193.2301100,28235.4500500],[28235.1451100,28289.2700500],[28134.1451100,28289.2700500],[28134.1451100,28197.2700500],[28176.0601100,28235.4500500],[28176.0601100,28251.0900500],[28193.2301100,28251.0900500],[28235.1451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,28197.2700500],[28309.6301100,28235.4500500],[28351.5451100,28289.2700500],[28250.5451100,28289.2700500],[28250.5451100,28197.2700500],[28292.4601100,28235.4500500],[28292.4601100,28251.0900500],[28309.6301100,28251.0900500],[28351.5451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28484.3451100,28197.2700500],[28442.4301100,28235.4500500],[28484.3451100,28289.2700500],[28383.3451100,28289.2700500],[28383.3451100,28197.2700500],[28425.2601100,28235.4500500],[28425.2601100,28251.0900500],[28442.4301100,28251.0900500],[28484.3451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,28197.2700500],[28558.8301100,28235.4500500],[28600.7451100,28289.2700500],[28499.7451100,28289.2700500],[28499.7451100,28197.2700500],[28541.6601100,28235.4500500],[28541.6601100,28251.0900500],[28558.8301100,28251.0900500],[28600.7451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>[[28717.1451100,28197.2700500],[28675.2301100,28235.4500500],[28717.1451100,28289.2700500],[28616.1451100,28289.2700500],[28616.1451100,28197.2700500],[28658.0601100,28235.4500500],[28658.0601100,28251.0900500],[28675.2301100,28251.0900500],[28717.1451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B179</t>
+  </si>
+  <si>
+    <t>[[28849.9451100,28197.2700500],[28808.0301100,28235.4500500],[28849.9451100,28289.2700500],[28748.9451100,28289.2700500],[28748.9451100,28197.2700500],[28790.8601100,28235.4500500],[28790.8601100,28251.0900500],[28808.0301100,28251.0900500],[28849.9451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B180</t>
+  </si>
+  <si>
+    <t>[[28966.3451100,28197.2700500],[28924.4301100,28235.4500500],[28966.3451100,28289.2700500],[28865.3451100,28289.2700500],[28865.3451100,28197.2700500],[28907.2601100,28235.4500500],[28907.2601100,28251.0900500],[28924.4301100,28251.0900500],[28966.3451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,28197.2700500],[29040.8301100,28235.4500500],[29082.7451100,28289.2700500],[28981.7451100,28289.2700500],[28981.7451100,28197.2700500],[29023.6601100,28235.4500500],[29023.6601100,28251.0900500],[29040.8301100,28251.0900500],[29082.7451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B182</t>
+  </si>
+  <si>
+    <t>[[29215.5451100,28197.2700500],[29173.6301100,28235.4500500],[29215.5451100,28289.2700500],[29114.5451100,28289.2700500],[29114.5451100,28197.2700500],[29156.4601100,28235.4500500],[29156.4601100,28251.0900500],[29173.6301100,28251.0900500],[29215.5451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B183</t>
+  </si>
+  <si>
+    <t>[[29331.9451100,28197.2700500],[29290.0301100,28235.4500500],[29331.9451100,28289.2700500],[29230.9451100,28289.2700500],[29230.9451100,28197.2700500],[29272.8601100,28235.4500500],[29272.8601100,28251.0900500],[29290.0301100,28251.0900500],[29331.9451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B184</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,28197.2700500],[29406.4301100,28235.4500500],[29448.3451100,28289.2700500],[29347.3451100,28289.2700500],[29347.3451100,28197.2700500],[29389.2601100,28235.4500500],[29389.2601100,28251.0900500],[29406.4301100,28251.0900500],[29448.3451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B185</t>
+  </si>
+  <si>
+    <t>[[29536.0755949,27735.8700500],[29510.5163259,27711.2938548],[29486.9319689,27735.8700500],[29536.0755949,27735.8700500]]</t>
+  </si>
+  <si>
+    <t>B186</t>
+  </si>
+  <si>
+    <t>[[29480.1451100,27751.2700500],[29522.0601100,27789.4500500],[29581.1451100,27843.2700500],[29480.1451100,27843.2700500],[29522.0601100,27805.0900500],[29539.2301100,27805.0900500],[29539.2301100,27789.4500500],[29581.1451100,27779.2060779],[29552.0916113,27751.2700500],[29480.1451100,27751.2700500]]</t>
+  </si>
+  <si>
+    <t>B187</t>
+  </si>
+  <si>
+    <t>[[29480.1451100,27966.0700500],[29522.0601100,28004.2500500],[29581.1451100,27966.0700500],[29581.1451100,28058.0700500],[29480.1451100,28058.0700500],[29522.0601100,28019.8900500],[29539.2301100,28019.8900500],[29539.2301100,28004.2500500],[29480.1451100,27966.0700500]]</t>
+  </si>
+  <si>
+    <t>B188</t>
+  </si>
+  <si>
+    <t>[[29480.1451100,27858.6700500],[29522.0601100,27896.8500500],[29581.1451100,27858.6700500],[29581.1451100,27950.6700500],[29480.1451100,27950.6700500],[29522.0601100,27912.4900500],[29539.2301100,27912.4900500],[29539.2301100,27896.8500500],[29480.1451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>B189</t>
+  </si>
+  <si>
+    <t>[[29480.1451100,28089.8700500],[29522.0601100,28128.0500500],[29581.1451100,28089.8700500],[29581.1451100,28181.8700500],[29480.1451100,28181.8700500],[29522.0601100,28143.6900500],[29539.2301100,28143.6900500],[29539.2301100,28128.0500500],[29480.1451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>B190</t>
+  </si>
+  <si>
+    <t>[[29480.1451100,28197.2700500],[29522.0601100,28235.4500500],[29581.1451100,28197.2700500],[29581.1451100,28289.2700500],[29480.1451100,28289.2700500],[29522.0601100,28251.0900500],[29539.2301100,28251.0900500],[29539.2301100,28235.4500500],[29480.1451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,28304.6700500],[27462.0301100,28342.8500500],[27503.9451100,28396.6700500],[27402.9451100,28304.6700500],[27444.8601100,28342.8500500],[27444.8601100,28358.4900500],[27462.0301100,28358.4900500],[27402.9451100,28318.4828369],[27484.5600208,28396.6700500],[27503.9451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B192</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,28304.6700500],[27578.4301100,28342.8500500],[27620.3451100,28396.6700500],[27519.3451100,28396.6700500],[27519.3451100,28304.6700500],[27561.2601100,28342.8500500],[27561.2601100,28358.4900500],[27578.4301100,28358.4900500],[27620.3451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B193</t>
+  </si>
+  <si>
+    <t>[[27753.1451100,28304.6700500],[27711.2301100,28342.8500500],[27652.1451100,28396.6700500],[27652.1451100,28304.6700500],[27694.0601100,28342.8500500],[27694.0601100,28358.4900500],[27711.2301100,28358.4900500],[27731.4750189,28396.6700500],[27753.1451100,28378.0444855],[27753.1451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>[[27768.5451100,28304.6700500],[27768.5451100,28364.8080994],[27838.5132986,28304.6700500],[27768.5451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B195</t>
+  </si>
+  <si>
+    <t>[[28351.5451100,28304.6700500],[28301.0209841,28304.6700500],[28351.5451100,28305.7930770],[28351.5451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B196</t>
+  </si>
+  <si>
+    <t>[[28484.3451100,28304.6700500],[28383.3451100,28304.6700500],[28383.3451100,28306.4999128],[28484.3451100,28308.7448943],[28484.3451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>[[28600.7451100,28304.6700500],[28499.7451100,28304.6700500],[28499.7451100,28309.0871984],[28600.7451100,28311.3321799],[28600.7451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B198</t>
+  </si>
+  <si>
+    <t>[[28717.1451100,28304.6700500],[28616.1451100,28304.6700500],[28616.1451100,28311.6744840],[28717.1451100,28313.9194656],[28717.1451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B199</t>
+  </si>
+  <si>
+    <t>[[28849.9451100,28304.6700500],[28748.9451100,28304.6700500],[28748.9451100,28314.6263013],[28849.9451100,28316.8712828],[28849.9451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>[[28966.3451100,28304.6700500],[28865.3451100,28304.6700500],[28865.3451100,28317.2135870],[28966.3451100,28319.4517818],[28966.3451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>[[29082.7451100,28304.6700500],[28981.7451100,28304.6700500],[28981.7451100,28319.5779656],[29082.7451100,28320.4055345],[29082.7451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>[[29215.5451100,28304.6700500],[29114.5451100,28304.6700500],[29114.5451100,28320.6660958],[29215.5451100,28321.4936647],[29215.5451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>[[29331.9451100,28304.6700500],[29230.9451100,28304.6700500],[29230.9451100,28321.6198485],[29316.6630500,28322.3222000],[29331.9451100,28319.8516434],[29331.9451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>[[29448.3451100,28304.6700500],[29448.3451100,28396.6700500],[29347.3451100,28304.6700500],[29347.3451100,28317.3620201],[29386.1622000,28311.0867000],[29444.8847296,28396.6700500],[29448.3451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>[[29581.1451100,28304.6700500],[29539.2301100,28342.8500500],[29581.1451100,28396.6700500],[29480.1451100,28396.6700500],[29480.1451100,28304.6700500],[29522.0601100,28342.8500500],[29522.0601100,28358.4900500],[29539.2301100,28358.4900500],[29581.1451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,27843.2700500],[29647.7717089,27843.2700500],[29596.5451100,27794.0137551],[29596.5451100,27843.2700500]]</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,27966.0700500],[29638.4601100,28004.2500500],[29697.5451100,27966.0700500],[29697.5451100,28058.0700500],[29596.5451100,28058.0700500],[29638.4601100,28019.8900500],[29655.6301100,28019.8900500],[29655.6301100,28004.2500500],[29596.5451100,27966.0700500]]</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,27858.6700500],[29638.4601100,27896.8500500],[29697.5451100,27950.6700500],[29596.5451100,27950.6700500],[29638.4601100,27912.4900500],[29655.6301100,27912.4900500],[29655.6301100,27896.8500500],[29697.5451100,27891.1290406],[29663.7877253,27858.6700500],[29596.5451100,27858.6700500]]</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>[[29712.9451100,27950.6700500],[29759.4678229,27950.6700500],[29712.9451100,27905.9367178],[29712.9451100,27950.6700500]]</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28058.0700500],[29772.0301100,28019.8900500],[29712.9451100,28058.0700500],[29712.9451100,27966.0700500],[29772.0301100,28004.2500500],[29754.8601100,28004.2500500],[29754.8601100,28019.8900500],[29813.9451100,28003.0520033],[29775.4838393,27966.0700500],[29813.9451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28181.8700500],[29772.0301100,28143.6900500],[29712.9451100,28181.8700500],[29712.9451100,28089.8700500],[29813.9451100,28089.8700500],[29772.0301100,28128.0500500],[29754.8601100,28128.0500500],[29754.8601100,28143.6900500],[29813.9451100,28181.8700500]]</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,28089.8700500],[29638.4601100,28128.0500500],[29697.5451100,28089.8700500],[29697.5451100,28181.8700500],[29596.5451100,28181.8700500],[29638.4601100,28143.6900500],[29655.6301100,28143.6900500],[29655.6301100,28128.0500500],[29596.5451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,28197.2700500],[29638.4601100,28235.4500500],[29697.5451100,28197.2700500],[29697.5451100,28289.2700500],[29596.5451100,28289.2700500],[29638.4601100,28251.0900500],[29655.6301100,28251.0900500],[29655.6301100,28235.4500500],[29596.5451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28289.2700500],[29772.0301100,28251.0900500],[29712.9451100,28289.2700500],[29712.9451100,28197.2700500],[29813.9451100,28197.2700500],[29772.0301100,28235.4500500],[29754.8601100,28235.4500500],[29754.8601100,28251.0900500],[29813.9451100,28289.2700500]]</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>[[29596.5451100,28304.6700500],[29638.4601100,28342.8500500],[29697.5451100,28304.6700500],[29697.5451100,28396.6700500],[29596.5451100,28396.6700500],[29638.4601100,28358.4900500],[29655.6301100,28358.4900500],[29655.6301100,28342.8500500],[29596.5451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28396.6700500],[29772.0301100,28358.4900500],[29712.9451100,28396.6700500],[29712.9451100,28304.6700500],[29813.9451100,28304.6700500],[29772.0301100,28342.8500500],[29754.8601100,28342.8500500],[29754.8601100,28358.4900500],[29813.9451100,28396.6700500]]</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>[[27503.9451100,28412.0700500],[27500.6351510,28412.0700500],[27503.9451100,28415.2409960],[27503.9451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>[[27620.3451100,28412.0700500],[27578.4301100,28450.2500500],[27519.3451100,28412.0700500],[27561.2601100,28450.2500500],[27561.2601100,28465.8900500],[27578.4301100,28465.8900500],[27519.3451100,28429.9942202],[27606.5194619,28504.0700500],[27620.3451100,28492.1868281],[27596.6683960,28504.0700500],[27620.3451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>[[27652.1451100,28412.0700500],[27652.1451100,28464.8545503],[27713.5577416,28412.0700500],[27652.1451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>[[29581.1451100,28412.0700500],[29539.2301100,28450.2500500],[29581.1451100,28504.0700500],[29480.1451100,28412.0700500],[29522.0601100,28450.2500500],[29522.0601100,28465.8900500],[29539.2301100,28465.8900500],[29480.1451100,28448.0592102],[29518.5766296,28504.0700500],[29581.1451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>[[29697.5451100,28412.0700500],[29655.6301100,28450.2500500],[29697.5451100,28504.0700500],[29596.5451100,28504.0700500],[29596.5451100,28412.0700500],[29638.4601100,28450.2500500],[29638.4601100,28465.8900500],[29655.6301100,28465.8900500],[29697.5451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28412.0700500],[29772.0301100,28450.2500500],[29813.9451100,28504.0700500],[29712.9451100,28504.0700500],[29712.9451100,28412.0700500],[29754.8601100,28450.2500500],[29754.8601100,28465.8900500],[29772.0301100,28465.8900500],[29813.9451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28058.0700500],[29871.1639369,28058.0700500],[29845.7451100,28033.6288952],[29845.7451100,28058.0700500]]</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28089.8700500],[29845.7451100,28181.8700500],[29875.2036200,28181.8700500],[29875.2036200,28089.8700500],[29845.7451100,28089.8700500]]</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28197.2700500],[29845.7451100,28289.2700500],[29875.2036200,28289.2700500],[29875.2036200,28197.2700500],[29845.7451100,28197.2700500]]</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28304.6700500],[29845.7451100,28396.6700500],[29875.2036200,28396.6700500],[29875.2036200,28304.6700500],[29845.7451100,28304.6700500]]</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28412.0700500],[29845.7451100,28504.0700500],[29875.2036200,28504.0700500],[29875.2036200,28412.0700500],[29845.7451100,28412.0700500]]</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>[[29581.1451100,28519.4700500],[29529.1432522,28519.4700500],[29581.1451100,28595.2585630],[29581.1451100,28519.4700500]]</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>[[29697.5451100,28519.4700500],[29655.6301100,28557.6500500],[29697.5451100,28611.4700500],[29596.5451100,28611.4700500],[29596.5451100,28519.4700500],[29638.4601100,28557.6500500],[29638.4601100,28573.2900500],[29655.6301100,28573.2900500],[29697.5451100,28519.4700500]]</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>[[29813.9451100,28519.4700500],[29772.0301100,28557.6500500],[29712.9451100,28611.4700500],[29712.9451100,28519.4700500],[29754.8601100,28557.6500500],[29754.8601100,28573.2900500],[29772.0301100,28573.2900500],[29780.6722576,28611.4700500],[29813.9451100,28590.4082674],[29813.9451100,28519.4700500]]</t>
+  </si>
+  <si>
+    <t>B231</t>
+  </si>
+  <si>
+    <t>[[29845.7451100,28519.4700500],[29845.7451100,28570.2788034],[29875.2036200,28551.6315072],[29875.2036200,28519.4700500],[29845.7451100,28519.4700500]]</t>
+  </si>
+  <si>
+    <t>B232</t>
+  </si>
+  <si>
+    <t>[[29697.5451100,28626.8700500],[29655.6301100,28665.0500500],[29638.4601100,28665.0500500],[29655.6301100,28680.6900500],[29602.8351522,28626.8700500],[29639.7634396,28680.6900500],[29649.3192000,28694.6168000],[29697.5451100,28664.0897019],[29638.4601100,28678.7905522],[29697.5451100,28626.8700500]]</t>
+  </si>
+  <si>
+    <t>B233</t>
+  </si>
+  <si>
+    <t>[[29712.9451100,28626.8700500],[29712.9451100,28654.3414708],[29756.3437410,28626.8700500],[29712.9451100,28626.8700500]]</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,3556 +1791,4656 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F60" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F67" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F77" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F82" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F91" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F92" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F95" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F97" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F99" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F100" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F101" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F102" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F104" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F105" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F106" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F107" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F109" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F110" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F112" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F113" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F114" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F115" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F116" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F117" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F119" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F120" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F121" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F122" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F123" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F124" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F125" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F126" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F127" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F128" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F129" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F130" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F131" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F132" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F133" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F134" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F135" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F136" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F137" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F138" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F139" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F140" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F141" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F142" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F143" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F144" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F145" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F146" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>296</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F147" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>298</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F148" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F150" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F151" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F152" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F153" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F154" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F155" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F156" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F157" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F158" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F159" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F160" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F162" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F163" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>330</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F164" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F165" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F166" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F167" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F168" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F169" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F170" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F171" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F172" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F173" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>350</v>
+        <v>178</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F174" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>179</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="C175">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F175" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="C177">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F177" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="C178">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F178" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
       <c r="C179">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F179" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>34</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>102</v>
+      </c>
+      <c r="F180" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>364</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>34</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>102</v>
+      </c>
+      <c r="F181" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>34</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>102</v>
+      </c>
+      <c r="F182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>368</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>34</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>102</v>
+      </c>
+      <c r="F183" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>34</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>102</v>
+      </c>
+      <c r="F184" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>34</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>102</v>
+      </c>
+      <c r="F185" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>34</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>102</v>
+      </c>
+      <c r="F186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>376</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>34</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>102</v>
+      </c>
+      <c r="F187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>378</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>34</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>102</v>
+      </c>
+      <c r="F188" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>34</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>102</v>
+      </c>
+      <c r="F189" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>382</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>34</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>102</v>
+      </c>
+      <c r="F190" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>384</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>34</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>102</v>
+      </c>
+      <c r="F191" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>386</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>34</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>102</v>
+      </c>
+      <c r="F192" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>34</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>102</v>
+      </c>
+      <c r="F193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>390</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>34</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>102</v>
+      </c>
+      <c r="F194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>34</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>102</v>
+      </c>
+      <c r="F195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>34</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>102</v>
+      </c>
+      <c r="F196" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>396</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>34</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>102</v>
+      </c>
+      <c r="F197" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>398</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>34</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>102</v>
+      </c>
+      <c r="F198" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>34</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>102</v>
+      </c>
+      <c r="F199" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>34</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>102</v>
+      </c>
+      <c r="F200" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>404</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>34</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>102</v>
+      </c>
+      <c r="F201" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>34</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>102</v>
+      </c>
+      <c r="F202" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>408</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>34</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>102</v>
+      </c>
+      <c r="F203" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>34</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>102</v>
+      </c>
+      <c r="F204" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>34</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>102</v>
+      </c>
+      <c r="F205" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>414</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>34</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>102</v>
+      </c>
+      <c r="F206" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>34</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>102</v>
+      </c>
+      <c r="F207" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>418</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>34</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>102</v>
+      </c>
+      <c r="F208" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>34</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>102</v>
+      </c>
+      <c r="F209" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>34</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>102</v>
+      </c>
+      <c r="F210" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>34</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>102</v>
+      </c>
+      <c r="F211" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>426</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>34</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>102</v>
+      </c>
+      <c r="F212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>34</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>102</v>
+      </c>
+      <c r="F213" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>430</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>34</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>102</v>
+      </c>
+      <c r="F214" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>34</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>102</v>
+      </c>
+      <c r="F215" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>434</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>34</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>102</v>
+      </c>
+      <c r="F216" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>34</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>102</v>
+      </c>
+      <c r="F217" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>438</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>34</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>102</v>
+      </c>
+      <c r="F218" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>34</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>102</v>
+      </c>
+      <c r="F219" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>34</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>102</v>
+      </c>
+      <c r="F220" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>444</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>102</v>
+      </c>
+      <c r="F221" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>34</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>102</v>
+      </c>
+      <c r="F222" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>34</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>102</v>
+      </c>
+      <c r="F223" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>34</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>102</v>
+      </c>
+      <c r="F224" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>34</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>102</v>
+      </c>
+      <c r="F225" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>454</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>34</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>102</v>
+      </c>
+      <c r="F226" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>456</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>34</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>102</v>
+      </c>
+      <c r="F227" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>458</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>34</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>102</v>
+      </c>
+      <c r="F228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>34</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>102</v>
+      </c>
+      <c r="F229" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>462</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>34</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>102</v>
+      </c>
+      <c r="F230" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>464</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>34</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>102</v>
+      </c>
+      <c r="F231" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>466</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>34</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>102</v>
+      </c>
+      <c r="F232" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>468</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>34</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>102</v>
+      </c>
+      <c r="F233" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>470</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>34</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>102</v>
+      </c>
+      <c r="F234" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
